--- a/Academedia modell.xlsx
+++ b/Academedia modell.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0222CC06-E557-AA48-AE53-07D74CB6DC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86603F01-6B2C-F145-9D4D-8D87BB74E577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24520" yWindow="500" windowWidth="26680" windowHeight="26740" activeTab="1" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
+    <workbookView xWindow="24040" yWindow="500" windowWidth="27160" windowHeight="26740" activeTab="4" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Modell" sheetId="2" r:id="rId2"/>
     <sheet name="Segementer" sheetId="4" r:id="rId3"/>
-    <sheet name="Nøkkeltall" sheetId="3" r:id="rId4"/>
-    <sheet name="Nedsideberegning" sheetId="5" r:id="rId5"/>
+    <sheet name="SOTP" sheetId="6" r:id="rId4"/>
+    <sheet name="Nøkkeltall" sheetId="3" r:id="rId5"/>
+    <sheet name="Nedsideberegning" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="137">
   <si>
     <t>Kapitalstruktur</t>
   </si>
@@ -384,9 +385,6 @@
     <t>ROE</t>
   </si>
   <si>
-    <t>Preschool and int</t>
-  </si>
-  <si>
     <t>Growth %</t>
   </si>
   <si>
@@ -427,6 +425,33 @@
   </si>
   <si>
     <t>EBITA margin %</t>
+  </si>
+  <si>
+    <t>Preschool and international</t>
+  </si>
+  <si>
+    <t>EBITA 25/26E</t>
+  </si>
+  <si>
+    <t>EV/EBITA</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>SEK/Share</t>
+  </si>
+  <si>
+    <t>SEKm</t>
+  </si>
+  <si>
+    <t>Enterprise value</t>
+  </si>
+  <si>
+    <t>Debt (Ex lease)</t>
+  </si>
+  <si>
+    <t>Equity value</t>
   </si>
 </sst>
 </file>
@@ -440,7 +465,7 @@
     <numFmt numFmtId="166" formatCode="0.0\ %"/>
     <numFmt numFmtId="167" formatCode="&quot;kr&quot;\ #,##0.0_);[Red]\(&quot;kr&quot;\ #,##0.0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -501,13 +526,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -599,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -628,8 +674,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -672,6 +716,14 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,6 +779,50 @@
         <a:xfrm>
           <a:off x="6096000" y="152400"/>
           <a:ext cx="7772400" cy="4264581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>105458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Bilde 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E356B8F-442F-776E-B662-E2D036ADD67B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4406900"/>
+          <a:ext cx="7772400" cy="2213658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1038,7 +1134,7 @@
   <dimension ref="A5:A11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1087,11 +1183,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9D41D6-FA1C-5144-915F-9569A5873643}">
   <dimension ref="A1:FP88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P1:P1048576"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1109,8 +1205,8 @@
     <col min="11" max="12" width="10" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.1640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="52" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="4"/>
+    <col min="15" max="15" width="10.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="50"/>
     <col min="17" max="17" width="12" style="2" customWidth="1"/>
     <col min="18" max="18" width="12.33203125" style="2" customWidth="1"/>
     <col min="19" max="28" width="10.83203125" style="2"/>
@@ -1174,10 +1270,10 @@
       <c r="N3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="51" t="s">
         <v>101</v>
       </c>
       <c r="Q3" s="7" t="s">
@@ -1246,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -1284,13 +1380,15 @@
       <c r="N4" s="11">
         <v>5037</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="11">
         <v>5118</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="52">
         <v>4101</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="11">
+        <v>5231</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="13"/>
@@ -1317,44 +1415,44 @@
         <v>19022</v>
       </c>
       <c r="AC4" s="12">
-        <f>AB4*1.075</f>
-        <v>20448.649999999998</v>
+        <f>AB4*1.05</f>
+        <v>19973.100000000002</v>
       </c>
       <c r="AD4" s="11">
         <f>AC4*1.05</f>
-        <v>21471.082499999997</v>
+        <v>20971.755000000005</v>
       </c>
       <c r="AE4" s="11">
         <f>AD4*1.05</f>
-        <v>22544.636624999999</v>
+        <v>22020.342750000007</v>
       </c>
       <c r="AF4" s="11">
         <f t="shared" ref="AF4:AL4" si="0">AE4*1.05</f>
-        <v>23671.868456249998</v>
+        <v>23121.35988750001</v>
       </c>
       <c r="AG4" s="11">
         <f t="shared" si="0"/>
-        <v>24855.461879062499</v>
+        <v>24277.42788187501</v>
       </c>
       <c r="AH4" s="11">
         <f t="shared" si="0"/>
-        <v>26098.234973015624</v>
+        <v>25491.299275968762</v>
       </c>
       <c r="AI4" s="11">
         <f t="shared" si="0"/>
-        <v>27403.146721666406</v>
+        <v>26765.864239767201</v>
       </c>
       <c r="AJ4" s="11">
         <f t="shared" si="0"/>
-        <v>28773.304057749727</v>
+        <v>28104.157451755564</v>
       </c>
       <c r="AK4" s="11">
         <f t="shared" si="0"/>
-        <v>30211.969260637215</v>
+        <v>29509.365324343344</v>
       </c>
       <c r="AL4" s="11">
         <f t="shared" si="0"/>
-        <v>31722.567723669079</v>
+        <v>30984.833590560513</v>
       </c>
     </row>
     <row r="5" spans="1:172" x14ac:dyDescent="0.25">
@@ -1400,13 +1498,15 @@
       <c r="N5" s="13">
         <v>-419</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5" s="13">
         <v>-410</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="53">
         <v>-383</v>
       </c>
-      <c r="Q5" s="13"/>
+      <c r="Q5" s="13">
+        <v>-492</v>
+      </c>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13">
@@ -1432,43 +1532,43 @@
       </c>
       <c r="AC5" s="14">
         <f t="shared" ref="AC5:AL5" si="1">AC4*-0.1</f>
-        <v>-2044.8649999999998</v>
+        <v>-1997.3100000000004</v>
       </c>
       <c r="AD5" s="13">
         <f t="shared" si="1"/>
-        <v>-2147.1082499999998</v>
+        <v>-2097.1755000000007</v>
       </c>
       <c r="AE5" s="13">
         <f t="shared" si="1"/>
-        <v>-2254.4636624999998</v>
+        <v>-2202.0342750000009</v>
       </c>
       <c r="AF5" s="13">
         <f t="shared" si="1"/>
-        <v>-2367.1868456249999</v>
+        <v>-2312.1359887500012</v>
       </c>
       <c r="AG5" s="13">
         <f t="shared" si="1"/>
-        <v>-2485.54618790625</v>
+        <v>-2427.742788187501</v>
       </c>
       <c r="AH5" s="13">
         <f t="shared" si="1"/>
-        <v>-2609.8234973015624</v>
+        <v>-2549.1299275968763</v>
       </c>
       <c r="AI5" s="13">
         <f t="shared" si="1"/>
-        <v>-2740.3146721666408</v>
+        <v>-2676.5864239767202</v>
       </c>
       <c r="AJ5" s="13">
         <f t="shared" si="1"/>
-        <v>-2877.3304057749729</v>
+        <v>-2810.4157451755564</v>
       </c>
       <c r="AK5" s="13">
         <f t="shared" si="1"/>
-        <v>-3021.1969260637215</v>
+        <v>-2950.9365324343344</v>
       </c>
       <c r="AL5" s="13">
         <f t="shared" si="1"/>
-        <v>-3172.2567723669081</v>
+        <v>-3098.4833590560515</v>
       </c>
     </row>
     <row r="6" spans="1:172" x14ac:dyDescent="0.25">
@@ -1477,7 +1577,7 @@
       </c>
       <c r="B6" s="5">
         <f>B4*B5</f>
-        <v>11077.5</v>
+        <v>9495</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1526,17 +1626,17 @@
         <f>SUM(N4:N5)</f>
         <v>4618</v>
       </c>
-      <c r="O6" s="55">
+      <c r="O6" s="13">
         <f t="shared" ref="O6:S6" si="3">SUM(O4:O5)</f>
         <v>4708</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="53">
         <f t="shared" si="3"/>
         <v>3718</v>
       </c>
       <c r="Q6" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4739</v>
       </c>
       <c r="R6" s="13">
         <f t="shared" si="3"/>
@@ -1577,43 +1677,43 @@
       </c>
       <c r="AC6" s="14">
         <f t="shared" si="5"/>
-        <v>18403.784999999996</v>
+        <v>17975.79</v>
       </c>
       <c r="AD6" s="13">
         <f t="shared" si="5"/>
-        <v>19323.974249999996</v>
+        <v>18874.579500000003</v>
       </c>
       <c r="AE6" s="13">
         <f t="shared" si="5"/>
-        <v>20290.172962500001</v>
+        <v>19818.308475000005</v>
       </c>
       <c r="AF6" s="13">
         <f t="shared" si="5"/>
-        <v>21304.681610624997</v>
+        <v>20809.22389875001</v>
       </c>
       <c r="AG6" s="13">
         <f t="shared" si="5"/>
-        <v>22369.91569115625</v>
+        <v>21849.685093687509</v>
       </c>
       <c r="AH6" s="13">
         <f t="shared" si="5"/>
-        <v>23488.411475714063</v>
+        <v>22942.169348371885</v>
       </c>
       <c r="AI6" s="13">
         <f t="shared" si="5"/>
-        <v>24662.832049499764</v>
+        <v>24089.27781579048</v>
       </c>
       <c r="AJ6" s="13">
         <f t="shared" si="5"/>
-        <v>25895.973651974753</v>
+        <v>25293.741706580007</v>
       </c>
       <c r="AK6" s="13">
         <f t="shared" si="5"/>
-        <v>27190.772334573492</v>
+        <v>26558.428791909009</v>
       </c>
       <c r="AL6" s="13">
         <f t="shared" si="5"/>
-        <v>28550.31095130217</v>
+        <v>27886.350231504461</v>
       </c>
     </row>
     <row r="7" spans="1:172" x14ac:dyDescent="0.25">
@@ -1621,8 +1721,8 @@
         <v>9</v>
       </c>
       <c r="B7" s="5">
-        <f>O37</f>
-        <v>777</v>
+        <f>Q37</f>
+        <v>661</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>47</v>
@@ -1660,13 +1760,15 @@
       <c r="N7" s="13">
         <v>-439</v>
       </c>
-      <c r="O7" s="55">
+      <c r="O7" s="13">
         <v>-509</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="53">
         <v>-420</v>
       </c>
-      <c r="Q7" s="13"/>
+      <c r="Q7" s="13">
+        <v>-468</v>
+      </c>
       <c r="U7" s="13"/>
       <c r="V7" s="13">
         <v>-2517</v>
@@ -1690,44 +1792,44 @@
         <v>-1789</v>
       </c>
       <c r="AC7" s="14">
-        <f>AB7*1.06</f>
-        <v>-1896.3400000000001</v>
+        <f>AB7*1.03</f>
+        <v>-1842.67</v>
       </c>
       <c r="AD7" s="13">
         <f>AC7*1.045</f>
-        <v>-1981.6753000000001</v>
+        <v>-1925.59015</v>
       </c>
       <c r="AE7" s="13">
         <f t="shared" ref="AE7:AK7" si="6">AD7*1.05</f>
-        <v>-2080.7590650000002</v>
+        <v>-2021.8696575000001</v>
       </c>
       <c r="AF7" s="13">
         <f t="shared" si="6"/>
-        <v>-2184.7970182500003</v>
+        <v>-2122.9631403750004</v>
       </c>
       <c r="AG7" s="13">
         <f t="shared" si="6"/>
-        <v>-2294.0368691625004</v>
+        <v>-2229.1112973937506</v>
       </c>
       <c r="AH7" s="13">
         <f t="shared" si="6"/>
-        <v>-2408.7387126206254</v>
+        <v>-2340.5668622634385</v>
       </c>
       <c r="AI7" s="13">
         <f t="shared" si="6"/>
-        <v>-2529.1756482516566</v>
+        <v>-2457.5952053766105</v>
       </c>
       <c r="AJ7" s="13">
         <f t="shared" si="6"/>
-        <v>-2655.6344306642395</v>
+        <v>-2580.474965645441</v>
       </c>
       <c r="AK7" s="13">
         <f t="shared" si="6"/>
-        <v>-2788.4161521974515</v>
+        <v>-2709.4987139277132</v>
       </c>
       <c r="AL7" s="13">
         <f t="shared" ref="AL7" si="7">AK7*1.05</f>
-        <v>-2927.8369598073241</v>
+        <v>-2844.9736496240989</v>
       </c>
     </row>
     <row r="8" spans="1:172" x14ac:dyDescent="0.25">
@@ -1735,8 +1837,8 @@
         <v>10</v>
       </c>
       <c r="B8" s="5">
-        <f>O40+O43+O41+O44</f>
-        <v>12103</v>
+        <f>Q40+Q43+Q41+Q44</f>
+        <v>12748</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>48</v>
@@ -1774,13 +1876,15 @@
       <c r="N8" s="13">
         <v>-3079</v>
       </c>
-      <c r="O8" s="55">
+      <c r="O8" s="13">
         <v>-3018</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="53">
         <v>-2434</v>
       </c>
-      <c r="Q8" s="13"/>
+      <c r="Q8" s="13">
+        <v>-3218</v>
+      </c>
       <c r="U8" s="13"/>
       <c r="V8" s="13">
         <v>-7272</v>
@@ -1804,44 +1908,44 @@
         <v>-11442</v>
       </c>
       <c r="AC8" s="14">
-        <f t="shared" ref="AC8:AC10" si="8">AB8*1.06</f>
-        <v>-12128.52</v>
+        <f t="shared" ref="AC8:AC10" si="8">AB8*1.03</f>
+        <v>-11785.26</v>
       </c>
       <c r="AD8" s="13">
         <f t="shared" ref="AD8:AD10" si="9">AC8*1.045</f>
-        <v>-12674.303399999999</v>
+        <v>-12315.5967</v>
       </c>
       <c r="AE8" s="13">
         <f t="shared" ref="AE8:AK10" si="10">AD8*1.05</f>
-        <v>-13308.01857</v>
+        <v>-12931.376535000001</v>
       </c>
       <c r="AF8" s="13">
         <f t="shared" si="10"/>
-        <v>-13973.419498500001</v>
+        <v>-13577.945361750002</v>
       </c>
       <c r="AG8" s="13">
         <f t="shared" si="10"/>
-        <v>-14672.090473425002</v>
+        <v>-14256.842629837503</v>
       </c>
       <c r="AH8" s="13">
         <f t="shared" si="10"/>
-        <v>-15405.694997096252</v>
+        <v>-14969.684761329379</v>
       </c>
       <c r="AI8" s="13">
         <f t="shared" si="10"/>
-        <v>-16175.979746951065</v>
+        <v>-15718.16899939585</v>
       </c>
       <c r="AJ8" s="13">
         <f t="shared" si="10"/>
-        <v>-16984.778734298619</v>
+        <v>-16504.077449365643</v>
       </c>
       <c r="AK8" s="13">
         <f t="shared" si="10"/>
-        <v>-17834.017671013553</v>
+        <v>-17329.281321833925</v>
       </c>
       <c r="AL8" s="13">
         <f t="shared" ref="AL8:AL10" si="11">AK8*1.05</f>
-        <v>-18725.718554564231</v>
+        <v>-18195.745387925621</v>
       </c>
     </row>
     <row r="9" spans="1:172" x14ac:dyDescent="0.25">
@@ -1850,7 +1954,7 @@
       </c>
       <c r="B9" s="6">
         <f>B6-B7+B8</f>
-        <v>22403.5</v>
+        <v>21582</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>49</v>
@@ -1888,13 +1992,15 @@
       <c r="N9" s="13">
         <v>-583</v>
       </c>
-      <c r="O9" s="55">
+      <c r="O9" s="13">
         <v>-589</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="53">
         <v>-571</v>
       </c>
-      <c r="Q9" s="13"/>
+      <c r="Q9" s="13">
+        <v>-590</v>
+      </c>
       <c r="U9" s="13"/>
       <c r="V9" s="13">
         <v>-296</v>
@@ -1919,43 +2025,43 @@
       </c>
       <c r="AC9" s="14">
         <f t="shared" si="8"/>
-        <v>-2494.1800000000003</v>
+        <v>-2423.59</v>
       </c>
       <c r="AD9" s="13">
         <f t="shared" si="9"/>
-        <v>-2606.4181000000003</v>
+        <v>-2532.65155</v>
       </c>
       <c r="AE9" s="13">
         <f t="shared" si="10"/>
-        <v>-2736.7390050000004</v>
+        <v>-2659.2841275000001</v>
       </c>
       <c r="AF9" s="13">
         <f t="shared" si="10"/>
-        <v>-2873.5759552500003</v>
+        <v>-2792.2483338750003</v>
       </c>
       <c r="AG9" s="13">
         <f t="shared" si="10"/>
-        <v>-3017.2547530125003</v>
+        <v>-2931.8607505687505</v>
       </c>
       <c r="AH9" s="13">
         <f t="shared" si="10"/>
-        <v>-3168.1174906631254</v>
+        <v>-3078.453788097188</v>
       </c>
       <c r="AI9" s="13">
         <f t="shared" si="10"/>
-        <v>-3326.5233651962817</v>
+        <v>-3232.3764775020477</v>
       </c>
       <c r="AJ9" s="13">
         <f t="shared" si="10"/>
-        <v>-3492.8495334560957</v>
+        <v>-3393.9953013771501</v>
       </c>
       <c r="AK9" s="13">
         <f t="shared" si="10"/>
-        <v>-3667.4920101289008</v>
+        <v>-3563.6950664460078</v>
       </c>
       <c r="AL9" s="13">
         <f t="shared" si="11"/>
-        <v>-3850.8666106353462</v>
+        <v>-3741.8798197683082</v>
       </c>
     </row>
     <row r="10" spans="1:172" x14ac:dyDescent="0.25">
@@ -1995,13 +2101,15 @@
       <c r="N10" s="13">
         <v>-16</v>
       </c>
-      <c r="O10" s="55">
+      <c r="O10" s="13">
         <v>-13</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="53">
         <v>0</v>
       </c>
-      <c r="Q10" s="13"/>
+      <c r="Q10" s="13">
+        <v>-13</v>
+      </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13">
         <v>1</v>
@@ -2026,43 +2134,43 @@
       </c>
       <c r="AC10" s="14">
         <f t="shared" si="8"/>
-        <v>-28.62</v>
+        <v>-27.810000000000002</v>
       </c>
       <c r="AD10" s="13">
         <f t="shared" si="9"/>
-        <v>-29.907899999999998</v>
+        <v>-29.061450000000001</v>
       </c>
       <c r="AE10" s="13">
         <f t="shared" si="10"/>
-        <v>-31.403295</v>
+        <v>-30.514522500000002</v>
       </c>
       <c r="AF10" s="13">
         <f t="shared" si="10"/>
-        <v>-32.973459750000004</v>
+        <v>-32.040248625000004</v>
       </c>
       <c r="AG10" s="13">
         <f t="shared" si="10"/>
-        <v>-34.622132737500003</v>
+        <v>-33.642261056250007</v>
       </c>
       <c r="AH10" s="13">
         <f t="shared" si="10"/>
-        <v>-36.353239374375008</v>
+        <v>-35.324374109062511</v>
       </c>
       <c r="AI10" s="13">
         <f t="shared" si="10"/>
-        <v>-38.17090134309376</v>
+        <v>-37.090592814515638</v>
       </c>
       <c r="AJ10" s="13">
         <f t="shared" si="10"/>
-        <v>-40.079446410248451</v>
+        <v>-38.945122455241425</v>
       </c>
       <c r="AK10" s="13">
         <f t="shared" si="10"/>
-        <v>-42.083418730760876</v>
+        <v>-40.892378578003495</v>
       </c>
       <c r="AL10" s="13">
         <f t="shared" si="11"/>
-        <v>-44.187589667298923</v>
+        <v>-42.936997506903673</v>
       </c>
     </row>
     <row r="11" spans="1:172" x14ac:dyDescent="0.25">
@@ -2113,17 +2221,17 @@
         <f>N5+N7+N8+N9+N10</f>
         <v>-4536</v>
       </c>
-      <c r="O11" s="55">
+      <c r="O11" s="13">
         <f t="shared" ref="O11:S11" si="13">O5+O7+O8+O9+O10</f>
         <v>-4539</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="53">
         <f t="shared" si="13"/>
         <v>-3808</v>
       </c>
       <c r="Q11" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-4781</v>
       </c>
       <c r="R11" s="13">
         <f t="shared" si="13"/>
@@ -2163,43 +2271,43 @@
       </c>
       <c r="AC11" s="14">
         <f t="shared" si="15"/>
-        <v>-18592.524999999998</v>
+        <v>-18076.640000000003</v>
       </c>
       <c r="AD11" s="13">
         <f t="shared" si="15"/>
-        <v>-19439.412949999994</v>
+        <v>-18900.075350000003</v>
       </c>
       <c r="AE11" s="13">
         <f t="shared" si="15"/>
-        <v>-20411.3835975</v>
+        <v>-19845.079117500001</v>
       </c>
       <c r="AF11" s="13">
         <f t="shared" si="15"/>
-        <v>-21431.952777375001</v>
+        <v>-20837.333073375001</v>
       </c>
       <c r="AG11" s="13">
         <f t="shared" si="15"/>
-        <v>-22503.550416243754</v>
+        <v>-21879.199727043757</v>
       </c>
       <c r="AH11" s="13">
         <f t="shared" si="15"/>
-        <v>-23628.727937055937</v>
+        <v>-22973.159713395944</v>
       </c>
       <c r="AI11" s="13">
         <f t="shared" si="15"/>
-        <v>-24810.164333908739</v>
+        <v>-24121.817699065741</v>
       </c>
       <c r="AJ11" s="13">
         <f t="shared" si="15"/>
-        <v>-26050.672550604173</v>
+        <v>-25327.908584019035</v>
       </c>
       <c r="AK11" s="13">
         <f t="shared" si="15"/>
-        <v>-27353.206178134384</v>
+        <v>-26594.304013219986</v>
       </c>
       <c r="AL11" s="13">
         <f t="shared" si="15"/>
-        <v>-28720.866487041105</v>
+        <v>-27924.019213880983</v>
       </c>
     </row>
     <row r="12" spans="1:172" x14ac:dyDescent="0.25">
@@ -2250,17 +2358,17 @@
         <f>N4+N11</f>
         <v>501</v>
       </c>
-      <c r="O12" s="54">
+      <c r="O12" s="11">
         <f t="shared" ref="O12:S12" si="17">O4+O11</f>
         <v>579</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="52">
         <f t="shared" si="17"/>
         <v>293</v>
       </c>
       <c r="Q12" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="R12" s="11">
         <f t="shared" si="17"/>
@@ -2270,6 +2378,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
+      <c r="T12" s="13"/>
       <c r="U12" s="13"/>
       <c r="V12" s="11">
         <f t="shared" ref="V12:AA12" si="18">V4+V11</f>
@@ -2301,43 +2410,43 @@
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="19"/>
-        <v>1856.125</v>
+        <v>1896.4599999999991</v>
       </c>
       <c r="AD12" s="11">
         <f t="shared" si="19"/>
-        <v>2031.6695500000023</v>
+        <v>2071.6796500000019</v>
       </c>
       <c r="AE12" s="11">
         <f t="shared" si="19"/>
-        <v>2133.253027499999</v>
+        <v>2175.2636325000058</v>
       </c>
       <c r="AF12" s="11">
         <f t="shared" si="19"/>
-        <v>2239.915678874997</v>
+        <v>2284.026814125009</v>
       </c>
       <c r="AG12" s="11">
         <f t="shared" si="19"/>
-        <v>2351.9114628187453</v>
+        <v>2398.2281548312531</v>
       </c>
       <c r="AH12" s="11">
         <f t="shared" si="19"/>
-        <v>2469.5070359596866</v>
+        <v>2518.1395625728182</v>
       </c>
       <c r="AI12" s="11">
         <f t="shared" si="19"/>
-        <v>2592.9823877576673</v>
+        <v>2644.0465407014599</v>
       </c>
       <c r="AJ12" s="11">
         <f t="shared" si="19"/>
-        <v>2722.6315071455538</v>
+        <v>2776.2488677365291</v>
       </c>
       <c r="AK12" s="11">
         <f t="shared" si="19"/>
-        <v>2858.7630825028318</v>
+        <v>2915.0613111233579</v>
       </c>
       <c r="AL12" s="11">
         <f t="shared" si="19"/>
-        <v>3001.7012366279741</v>
+        <v>3060.8143766795292</v>
       </c>
     </row>
     <row r="13" spans="1:172" x14ac:dyDescent="0.25">
@@ -2377,13 +2486,15 @@
       <c r="N13" s="13">
         <v>-195</v>
       </c>
-      <c r="O13" s="55">
+      <c r="O13" s="13">
         <v>-157</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="53">
         <v>-186</v>
       </c>
-      <c r="Q13" s="13"/>
+      <c r="Q13" s="13">
+        <v>-200</v>
+      </c>
       <c r="U13" s="13"/>
       <c r="V13" s="13">
         <v>-69</v>
@@ -2498,17 +2609,17 @@
         <f>SUM(N12:N13)</f>
         <v>306</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14" s="13">
         <f t="shared" ref="O14:S14" si="22">SUM(O12:O13)</f>
         <v>422</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="53">
         <f t="shared" si="22"/>
         <v>107</v>
       </c>
       <c r="Q14" s="13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="R14" s="13">
         <f t="shared" si="22"/>
@@ -2548,43 +2659,43 @@
       </c>
       <c r="AC14" s="14">
         <f t="shared" si="24"/>
-        <v>1110.625</v>
+        <v>1150.9599999999991</v>
       </c>
       <c r="AD14" s="13">
         <f t="shared" si="24"/>
-        <v>1263.8045500000023</v>
+        <v>1303.8146500000018</v>
       </c>
       <c r="AE14" s="13">
         <f t="shared" si="24"/>
-        <v>1342.3520774999988</v>
+        <v>1384.3626825000056</v>
       </c>
       <c r="AF14" s="13">
         <f t="shared" si="24"/>
-        <v>1425.2877003749968</v>
+        <v>1469.3988356250088</v>
       </c>
       <c r="AG14" s="13">
         <f t="shared" si="24"/>
-        <v>1512.8446449637452</v>
+        <v>1559.1613369762529</v>
       </c>
       <c r="AH14" s="13">
         <f t="shared" si="24"/>
-        <v>1605.2682135690366</v>
+        <v>1653.9007401821682</v>
       </c>
       <c r="AI14" s="13">
         <f t="shared" si="24"/>
-        <v>1702.8164006952975</v>
+        <v>1753.8805536390901</v>
       </c>
       <c r="AJ14" s="13">
         <f t="shared" si="24"/>
-        <v>1805.7605404713131</v>
+        <v>1859.3779010622884</v>
       </c>
       <c r="AK14" s="13">
         <f t="shared" si="24"/>
-        <v>1914.3859868283639</v>
+        <v>1970.68421544889</v>
       </c>
       <c r="AL14" s="13">
         <f t="shared" si="24"/>
-        <v>2028.9928280832719</v>
+        <v>2088.105968134827</v>
       </c>
     </row>
     <row r="15" spans="1:172" x14ac:dyDescent="0.25">
@@ -2624,13 +2735,15 @@
       <c r="N15" s="13">
         <v>-63</v>
       </c>
-      <c r="O15" s="55">
+      <c r="O15" s="13">
         <v>-101</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="53">
         <v>-25</v>
       </c>
-      <c r="Q15" s="13"/>
+      <c r="Q15" s="13">
+        <v>-51</v>
+      </c>
       <c r="U15" s="13"/>
       <c r="V15" s="13">
         <v>-136</v>
@@ -2655,43 +2768,43 @@
       </c>
       <c r="AC15" s="14">
         <f t="shared" ref="AC15:AL15" si="25">AC14*-0.22</f>
-        <v>-244.33750000000001</v>
+        <v>-253.21119999999982</v>
       </c>
       <c r="AD15" s="13">
         <f t="shared" si="25"/>
-        <v>-278.03700100000054</v>
+        <v>-286.8392230000004</v>
       </c>
       <c r="AE15" s="13">
         <f t="shared" si="25"/>
-        <v>-295.31745704999975</v>
+        <v>-304.55979015000122</v>
       </c>
       <c r="AF15" s="13">
         <f t="shared" si="25"/>
-        <v>-313.56329408249928</v>
+        <v>-323.26774383750194</v>
       </c>
       <c r="AG15" s="13">
         <f t="shared" si="25"/>
-        <v>-332.82582189202395</v>
+        <v>-343.01549413477562</v>
       </c>
       <c r="AH15" s="13">
         <f t="shared" si="25"/>
-        <v>-353.15900698518806</v>
+        <v>-363.858162840077</v>
       </c>
       <c r="AI15" s="13">
         <f t="shared" si="25"/>
-        <v>-374.61960815296544</v>
+        <v>-385.85372180059983</v>
       </c>
       <c r="AJ15" s="13">
         <f t="shared" si="25"/>
-        <v>-397.26731890368887</v>
+        <v>-409.06313823370346</v>
       </c>
       <c r="AK15" s="13">
         <f t="shared" si="25"/>
-        <v>-421.16491710224005</v>
+        <v>-433.55052739875578</v>
       </c>
       <c r="AL15" s="13">
         <f t="shared" si="25"/>
-        <v>-446.37842217831979</v>
+        <v>-459.38331298966193</v>
       </c>
     </row>
     <row r="16" spans="1:172" x14ac:dyDescent="0.25">
@@ -2742,17 +2855,17 @@
         <f>SUM(N14:N15)</f>
         <v>243</v>
       </c>
-      <c r="O16" s="54">
+      <c r="O16" s="11">
         <f t="shared" ref="O16:S16" si="27">SUM(O14:O15)</f>
         <v>321</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="52">
         <f t="shared" si="27"/>
         <v>82</v>
       </c>
       <c r="Q16" s="11">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="R16" s="11">
         <f t="shared" si="27"/>
@@ -2792,579 +2905,579 @@
       </c>
       <c r="AC16" s="12">
         <f t="shared" si="29"/>
-        <v>866.28750000000002</v>
+        <v>897.74879999999928</v>
       </c>
       <c r="AD16" s="11">
         <f t="shared" si="29"/>
-        <v>985.76754900000174</v>
+        <v>1016.9754270000014</v>
       </c>
       <c r="AE16" s="11">
         <f t="shared" si="29"/>
-        <v>1047.034620449999</v>
+        <v>1079.8028923500044</v>
       </c>
       <c r="AF16" s="11">
         <f t="shared" si="29"/>
-        <v>1111.7244062924974</v>
+        <v>1146.1310917875069</v>
       </c>
       <c r="AG16" s="11">
         <f t="shared" si="29"/>
-        <v>1180.0188230717213</v>
+        <v>1216.1458428414771</v>
       </c>
       <c r="AH16" s="11">
         <f t="shared" si="29"/>
-        <v>1252.1092065838484</v>
+        <v>1290.0425773420911</v>
       </c>
       <c r="AI16" s="11">
         <f t="shared" si="29"/>
-        <v>1328.1967925423321</v>
+        <v>1368.0268318384901</v>
       </c>
       <c r="AJ16" s="11">
         <f t="shared" si="29"/>
-        <v>1408.4932215676242</v>
+        <v>1450.3147628285849</v>
       </c>
       <c r="AK16" s="11">
         <f t="shared" si="29"/>
-        <v>1493.2210697261239</v>
+        <v>1537.1336880501342</v>
       </c>
       <c r="AL16" s="11">
         <f t="shared" si="29"/>
-        <v>1582.614405904952</v>
+        <v>1628.7226551451649</v>
       </c>
       <c r="AM16" s="11">
         <f>AL16*(1+$AO$20)</f>
-        <v>1566.7882618459025</v>
+        <v>1612.4354285937134</v>
       </c>
       <c r="AN16" s="11">
         <f t="shared" ref="AN16:CY16" si="30">AM16*(1+$AO$20)</f>
-        <v>1551.1203792274434</v>
+        <v>1596.3110743077762</v>
       </c>
       <c r="AO16" s="11">
         <f t="shared" si="30"/>
-        <v>1535.6091754351689</v>
+        <v>1580.3479635646984</v>
       </c>
       <c r="AP16" s="11">
         <f t="shared" si="30"/>
-        <v>1520.2530836808173</v>
+        <v>1564.5444839290515</v>
       </c>
       <c r="AQ16" s="11">
         <f t="shared" si="30"/>
-        <v>1505.0505528440092</v>
+        <v>1548.8990390897609</v>
       </c>
       <c r="AR16" s="11">
         <f t="shared" si="30"/>
-        <v>1490.0000473155692</v>
+        <v>1533.4100486988632</v>
       </c>
       <c r="AS16" s="11">
         <f t="shared" si="30"/>
-        <v>1475.1000468424136</v>
+        <v>1518.0759482118744</v>
       </c>
       <c r="AT16" s="11">
         <f t="shared" si="30"/>
-        <v>1460.3490463739895</v>
+        <v>1502.8951887297558</v>
       </c>
       <c r="AU16" s="11">
         <f t="shared" si="30"/>
-        <v>1445.7455559102495</v>
+        <v>1487.8662368424582</v>
       </c>
       <c r="AV16" s="11">
         <f t="shared" si="30"/>
-        <v>1431.288100351147</v>
+        <v>1472.9875744740336</v>
       </c>
       <c r="AW16" s="11">
         <f t="shared" si="30"/>
-        <v>1416.9752193476356</v>
+        <v>1458.2576987292932</v>
       </c>
       <c r="AX16" s="11">
         <f t="shared" si="30"/>
-        <v>1402.8054671541593</v>
+        <v>1443.6751217420003</v>
       </c>
       <c r="AY16" s="11">
         <f t="shared" si="30"/>
-        <v>1388.7774124826176</v>
+        <v>1429.2383705245802</v>
       </c>
       <c r="AZ16" s="11">
         <f t="shared" si="30"/>
-        <v>1374.8896383577915</v>
+        <v>1414.9459868193344</v>
       </c>
       <c r="BA16" s="11">
         <f t="shared" si="30"/>
-        <v>1361.1407419742136</v>
+        <v>1400.796526951141</v>
       </c>
       <c r="BB16" s="11">
         <f t="shared" si="30"/>
-        <v>1347.5293345544715</v>
+        <v>1386.7885616816295</v>
       </c>
       <c r="BC16" s="11">
         <f t="shared" si="30"/>
-        <v>1334.0540412089267</v>
+        <v>1372.9206760648133</v>
       </c>
       <c r="BD16" s="11">
         <f t="shared" si="30"/>
-        <v>1320.7135007968375</v>
+        <v>1359.1914693041651</v>
       </c>
       <c r="BE16" s="11">
         <f t="shared" si="30"/>
-        <v>1307.5063657888691</v>
+        <v>1345.5995546111235</v>
       </c>
       <c r="BF16" s="11">
         <f t="shared" si="30"/>
-        <v>1294.4313021309804</v>
+        <v>1332.1435590650121</v>
       </c>
       <c r="BG16" s="11">
         <f t="shared" si="30"/>
-        <v>1281.4869891096705</v>
+        <v>1318.8221234743621</v>
       </c>
       <c r="BH16" s="11">
         <f t="shared" si="30"/>
-        <v>1268.6721192185737</v>
+        <v>1305.6339022396185</v>
       </c>
       <c r="BI16" s="11">
         <f t="shared" si="30"/>
-        <v>1255.9853980263879</v>
+        <v>1292.5775632172222</v>
       </c>
       <c r="BJ16" s="11">
         <f t="shared" si="30"/>
-        <v>1243.4255440461241</v>
+        <v>1279.65178758505</v>
       </c>
       <c r="BK16" s="11">
         <f t="shared" si="30"/>
-        <v>1230.9912886056627</v>
+        <v>1266.8552697091995</v>
       </c>
       <c r="BL16" s="11">
         <f t="shared" si="30"/>
-        <v>1218.681375719606</v>
+        <v>1254.1867170121075</v>
       </c>
       <c r="BM16" s="11">
         <f t="shared" si="30"/>
-        <v>1206.49456196241</v>
+        <v>1241.6448498419863</v>
       </c>
       <c r="BN16" s="11">
         <f t="shared" si="30"/>
-        <v>1194.4296163427859</v>
+        <v>1229.2284013435665</v>
       </c>
       <c r="BO16" s="11">
         <f t="shared" si="30"/>
-        <v>1182.485320179358</v>
+        <v>1216.9361173301309</v>
       </c>
       <c r="BP16" s="11">
         <f t="shared" si="30"/>
-        <v>1170.6604669775645</v>
+        <v>1204.7667561568296</v>
       </c>
       <c r="BQ16" s="11">
         <f t="shared" si="30"/>
-        <v>1158.9538623077888</v>
+        <v>1192.7190885952614</v>
       </c>
       <c r="BR16" s="11">
         <f t="shared" si="30"/>
-        <v>1147.3643236847108</v>
+        <v>1180.7918977093088</v>
       </c>
       <c r="BS16" s="11">
         <f t="shared" si="30"/>
-        <v>1135.8906804478638</v>
+        <v>1168.9839787322157</v>
       </c>
       <c r="BT16" s="11">
         <f t="shared" si="30"/>
-        <v>1124.5317736433851</v>
+        <v>1157.2941389448936</v>
       </c>
       <c r="BU16" s="11">
         <f t="shared" si="30"/>
-        <v>1113.2864559069512</v>
+        <v>1145.7211975554446</v>
       </c>
       <c r="BV16" s="11">
         <f t="shared" si="30"/>
-        <v>1102.1535913478817</v>
+        <v>1134.2639855798902</v>
       </c>
       <c r="BW16" s="11">
         <f t="shared" si="30"/>
-        <v>1091.1320554344029</v>
+        <v>1122.9213457240912</v>
       </c>
       <c r="BX16" s="11">
         <f t="shared" si="30"/>
-        <v>1080.2207348800589</v>
+        <v>1111.6921322668502</v>
       </c>
       <c r="BY16" s="11">
         <f t="shared" si="30"/>
-        <v>1069.4185275312584</v>
+        <v>1100.5752109441817</v>
       </c>
       <c r="BZ16" s="11">
         <f t="shared" si="30"/>
-        <v>1058.7243422559459</v>
+        <v>1089.5694588347399</v>
       </c>
       <c r="CA16" s="11">
         <f t="shared" si="30"/>
-        <v>1048.1370988333865</v>
+        <v>1078.6737642463925</v>
       </c>
       <c r="CB16" s="11">
         <f t="shared" si="30"/>
-        <v>1037.6557278450528</v>
+        <v>1067.8870266039285</v>
       </c>
       <c r="CC16" s="11">
         <f t="shared" si="30"/>
-        <v>1027.2791705666023</v>
+        <v>1057.2081563378892</v>
       </c>
       <c r="CD16" s="11">
         <f t="shared" si="30"/>
-        <v>1017.0063788609363</v>
+        <v>1046.6360747745102</v>
       </c>
       <c r="CE16" s="11">
         <f t="shared" si="30"/>
-        <v>1006.8363150723269</v>
+        <v>1036.1697140267652</v>
       </c>
       <c r="CF16" s="11">
         <f t="shared" si="30"/>
-        <v>996.76795192160364</v>
+        <v>1025.8080168864976</v>
       </c>
       <c r="CG16" s="11">
         <f t="shared" si="30"/>
-        <v>986.80027240238758</v>
+        <v>1015.5499367176326</v>
       </c>
       <c r="CH16" s="11">
         <f t="shared" si="30"/>
-        <v>976.9322696783637</v>
+        <v>1005.3944373504562</v>
       </c>
       <c r="CI16" s="11">
         <f t="shared" si="30"/>
-        <v>967.16294698158003</v>
+        <v>995.34049297695162</v>
       </c>
       <c r="CJ16" s="11">
         <f t="shared" si="30"/>
-        <v>957.49131751176424</v>
+        <v>985.38708804718215</v>
       </c>
       <c r="CK16" s="11">
         <f t="shared" si="30"/>
-        <v>947.91640433664656</v>
+        <v>975.5332171667103</v>
       </c>
       <c r="CL16" s="11">
         <f t="shared" si="30"/>
-        <v>938.43724029328007</v>
+        <v>965.77788499504322</v>
       </c>
       <c r="CM16" s="11">
         <f t="shared" si="30"/>
-        <v>929.05286789034722</v>
+        <v>956.12010614509279</v>
       </c>
       <c r="CN16" s="11">
         <f t="shared" si="30"/>
-        <v>919.76233921144376</v>
+        <v>946.55890508364189</v>
       </c>
       <c r="CO16" s="11">
         <f t="shared" si="30"/>
-        <v>910.56471581932931</v>
+        <v>937.09331603280543</v>
       </c>
       <c r="CP16" s="11">
         <f t="shared" si="30"/>
-        <v>901.45906866113603</v>
+        <v>927.7223828724774</v>
       </c>
       <c r="CQ16" s="11">
         <f t="shared" si="30"/>
-        <v>892.44447797452472</v>
+        <v>918.4451590437526</v>
       </c>
       <c r="CR16" s="11">
         <f t="shared" si="30"/>
-        <v>883.52003319477944</v>
+        <v>909.26070745331504</v>
       </c>
       <c r="CS16" s="11">
         <f t="shared" si="30"/>
-        <v>874.68483286283163</v>
+        <v>900.1681003787819</v>
       </c>
       <c r="CT16" s="11">
         <f t="shared" si="30"/>
-        <v>865.93798453420334</v>
+        <v>891.16641937499412</v>
       </c>
       <c r="CU16" s="11">
         <f t="shared" si="30"/>
-        <v>857.27860468886126</v>
+        <v>882.25475518124415</v>
       </c>
       <c r="CV16" s="11">
         <f t="shared" si="30"/>
-        <v>848.70581864197266</v>
+        <v>873.43220762943167</v>
       </c>
       <c r="CW16" s="11">
         <f t="shared" si="30"/>
-        <v>840.21876045555291</v>
+        <v>864.69788555313733</v>
       </c>
       <c r="CX16" s="11">
         <f t="shared" si="30"/>
-        <v>831.81657285099732</v>
+        <v>856.05090669760591</v>
       </c>
       <c r="CY16" s="11">
         <f t="shared" si="30"/>
-        <v>823.49840712248738</v>
+        <v>847.4903976306299</v>
       </c>
       <c r="CZ16" s="11">
         <f t="shared" ref="CZ16:FK16" si="31">CY16*(1+$AO$20)</f>
-        <v>815.26342305126252</v>
+        <v>839.01549365432356</v>
       </c>
       <c r="DA16" s="11">
         <f t="shared" si="31"/>
-        <v>807.11078882074992</v>
+        <v>830.62533871778032</v>
       </c>
       <c r="DB16" s="11">
         <f t="shared" si="31"/>
-        <v>799.03968093254241</v>
+        <v>822.31908533060255</v>
       </c>
       <c r="DC16" s="11">
         <f t="shared" si="31"/>
-        <v>791.04928412321703</v>
+        <v>814.0958944772965</v>
       </c>
       <c r="DD16" s="11">
         <f t="shared" si="31"/>
-        <v>783.13879128198482</v>
+        <v>805.95493553252356</v>
       </c>
       <c r="DE16" s="11">
         <f t="shared" si="31"/>
-        <v>775.30740336916494</v>
+        <v>797.89538617719836</v>
       </c>
       <c r="DF16" s="11">
         <f t="shared" si="31"/>
-        <v>767.55432933547331</v>
+        <v>789.91643231542639</v>
       </c>
       <c r="DG16" s="11">
         <f t="shared" si="31"/>
-        <v>759.87878604211858</v>
+        <v>782.01726799227208</v>
       </c>
       <c r="DH16" s="11">
         <f t="shared" si="31"/>
-        <v>752.27999818169735</v>
+        <v>774.19709531234935</v>
       </c>
       <c r="DI16" s="11">
         <f t="shared" si="31"/>
-        <v>744.75719819988035</v>
+        <v>766.45512435922581</v>
       </c>
       <c r="DJ16" s="11">
         <f t="shared" si="31"/>
-        <v>737.30962621788149</v>
+        <v>758.79057311563349</v>
       </c>
       <c r="DK16" s="11">
         <f t="shared" si="31"/>
-        <v>729.93652995570267</v>
+        <v>751.20266738447719</v>
       </c>
       <c r="DL16" s="11">
         <f t="shared" si="31"/>
-        <v>722.63716465614561</v>
+        <v>743.69064071063247</v>
       </c>
       <c r="DM16" s="11">
         <f t="shared" si="31"/>
-        <v>715.41079300958415</v>
+        <v>736.25373430352613</v>
       </c>
       <c r="DN16" s="11">
         <f t="shared" si="31"/>
-        <v>708.25668507948831</v>
+        <v>728.8911969604909</v>
       </c>
       <c r="DO16" s="11">
         <f t="shared" si="31"/>
-        <v>701.17411822869337</v>
+        <v>721.60228499088601</v>
       </c>
       <c r="DP16" s="11">
         <f t="shared" si="31"/>
-        <v>694.16237704640639</v>
+        <v>714.38626214097712</v>
       </c>
       <c r="DQ16" s="11">
         <f t="shared" si="31"/>
-        <v>687.22075327594234</v>
+        <v>707.24239951956736</v>
       </c>
       <c r="DR16" s="11">
         <f t="shared" si="31"/>
-        <v>680.34854574318297</v>
+        <v>700.16997552437169</v>
       </c>
       <c r="DS16" s="11">
         <f t="shared" si="31"/>
-        <v>673.54506028575111</v>
+        <v>693.16827576912794</v>
       </c>
       <c r="DT16" s="11">
         <f t="shared" si="31"/>
-        <v>666.80960968289355</v>
+        <v>686.23659301143664</v>
       </c>
       <c r="DU16" s="11">
         <f t="shared" si="31"/>
-        <v>660.14151358606466</v>
+        <v>679.37422708132226</v>
       </c>
       <c r="DV16" s="11">
         <f t="shared" si="31"/>
-        <v>653.54009845020403</v>
+        <v>672.58048481050901</v>
       </c>
       <c r="DW16" s="11">
         <f t="shared" si="31"/>
-        <v>647.00469746570195</v>
+        <v>665.85467996240391</v>
       </c>
       <c r="DX16" s="11">
         <f t="shared" si="31"/>
-        <v>640.53465049104489</v>
+        <v>659.19613316277992</v>
       </c>
       <c r="DY16" s="11">
         <f t="shared" si="31"/>
-        <v>634.12930398613446</v>
+        <v>652.60417183115214</v>
       </c>
       <c r="DZ16" s="11">
         <f t="shared" si="31"/>
-        <v>627.78801094627306</v>
+        <v>646.07813011284065</v>
       </c>
       <c r="EA16" s="11">
         <f t="shared" si="31"/>
-        <v>621.51013083681028</v>
+        <v>639.61734881171219</v>
       </c>
       <c r="EB16" s="11">
         <f t="shared" si="31"/>
-        <v>615.29502952844211</v>
+        <v>633.22117532359505</v>
       </c>
       <c r="EC16" s="11">
         <f t="shared" si="31"/>
-        <v>609.14207923315769</v>
+        <v>626.88896357035912</v>
       </c>
       <c r="ED16" s="11">
         <f t="shared" si="31"/>
-        <v>603.05065844082606</v>
+        <v>620.62007393465558</v>
       </c>
       <c r="EE16" s="11">
         <f t="shared" si="31"/>
-        <v>597.02015185641778</v>
+        <v>614.41387319530907</v>
       </c>
       <c r="EF16" s="11">
         <f t="shared" si="31"/>
-        <v>591.0499503378536</v>
+        <v>608.26973446335592</v>
       </c>
       <c r="EG16" s="11">
         <f t="shared" si="31"/>
-        <v>585.13945083447504</v>
+        <v>602.1870371187224</v>
       </c>
       <c r="EH16" s="11">
         <f t="shared" si="31"/>
-        <v>579.28805632613023</v>
+        <v>596.16516674753518</v>
       </c>
       <c r="EI16" s="11">
         <f t="shared" si="31"/>
-        <v>573.49517576286894</v>
+        <v>590.20351508005979</v>
       </c>
       <c r="EJ16" s="11">
         <f t="shared" si="31"/>
-        <v>567.76022400524027</v>
+        <v>584.30147992925913</v>
       </c>
       <c r="EK16" s="11">
         <f t="shared" si="31"/>
-        <v>562.08262176518792</v>
+        <v>578.4584651299665</v>
       </c>
       <c r="EL16" s="11">
         <f t="shared" si="31"/>
-        <v>556.46179554753598</v>
+        <v>572.67388047866677</v>
       </c>
       <c r="EM16" s="11">
         <f t="shared" si="31"/>
-        <v>550.89717759206064</v>
+        <v>566.94714167388008</v>
       </c>
       <c r="EN16" s="11">
         <f t="shared" si="31"/>
-        <v>545.38820581614004</v>
+        <v>561.27767025714127</v>
       </c>
       <c r="EO16" s="11">
         <f t="shared" si="31"/>
-        <v>539.93432375797863</v>
+        <v>555.66489355456986</v>
       </c>
       <c r="EP16" s="11">
         <f t="shared" si="31"/>
-        <v>534.53498052039879</v>
+        <v>550.10824461902416</v>
       </c>
       <c r="EQ16" s="11">
         <f t="shared" si="31"/>
-        <v>529.18963071519477</v>
+        <v>544.60716217283391</v>
       </c>
       <c r="ER16" s="11">
         <f t="shared" si="31"/>
-        <v>523.89773440804277</v>
+        <v>539.16109055110553</v>
       </c>
       <c r="ES16" s="11">
         <f t="shared" si="31"/>
-        <v>518.6587570639623</v>
+        <v>533.76947964559452</v>
       </c>
       <c r="ET16" s="11">
         <f t="shared" si="31"/>
-        <v>513.47216949332267</v>
+        <v>528.43178484913858</v>
       </c>
       <c r="EU16" s="11">
         <f t="shared" si="31"/>
-        <v>508.33744779838946</v>
+        <v>523.14746700064723</v>
       </c>
       <c r="EV16" s="11">
         <f t="shared" si="31"/>
-        <v>503.25407332040555</v>
+        <v>517.91599233064073</v>
       </c>
       <c r="EW16" s="11">
         <f t="shared" si="31"/>
-        <v>498.22153258720147</v>
+        <v>512.7368324073343</v>
       </c>
       <c r="EX16" s="11">
         <f t="shared" si="31"/>
-        <v>493.23931726132946</v>
+        <v>507.60946408326095</v>
       </c>
       <c r="EY16" s="11">
         <f t="shared" si="31"/>
-        <v>488.30692408871619</v>
+        <v>502.53336944242835</v>
       </c>
       <c r="EZ16" s="11">
         <f t="shared" si="31"/>
-        <v>483.42385484782903</v>
+        <v>497.50803574800409</v>
       </c>
       <c r="FA16" s="11">
         <f t="shared" si="31"/>
-        <v>478.58961629935072</v>
+        <v>492.53295539052402</v>
       </c>
       <c r="FB16" s="11">
         <f t="shared" si="31"/>
-        <v>473.80372013635719</v>
+        <v>487.60762583661875</v>
       </c>
       <c r="FC16" s="11">
         <f t="shared" si="31"/>
-        <v>469.06568293499362</v>
+        <v>482.73154957825255</v>
       </c>
       <c r="FD16" s="11">
         <f t="shared" si="31"/>
-        <v>464.37502610564366</v>
+        <v>477.90423408247</v>
       </c>
       <c r="FE16" s="11">
         <f t="shared" si="31"/>
-        <v>459.73127584458723</v>
+        <v>473.12519174164527</v>
       </c>
       <c r="FF16" s="11">
         <f t="shared" si="31"/>
-        <v>455.13396308614136</v>
+        <v>468.39393982422882</v>
       </c>
       <c r="FG16" s="11">
         <f t="shared" si="31"/>
-        <v>450.58262345527993</v>
+        <v>463.71000042598655</v>
       </c>
       <c r="FH16" s="11">
         <f t="shared" si="31"/>
-        <v>446.07679722072714</v>
+        <v>459.07290042172667</v>
       </c>
       <c r="FI16" s="11">
         <f t="shared" si="31"/>
-        <v>441.61602924851985</v>
+        <v>454.48217141750939</v>
       </c>
       <c r="FJ16" s="11">
         <f t="shared" si="31"/>
-        <v>437.19986895603466</v>
+        <v>449.93734970333429</v>
       </c>
       <c r="FK16" s="11">
         <f t="shared" si="31"/>
-        <v>432.82787026647429</v>
+        <v>445.43797620630096</v>
       </c>
       <c r="FL16" s="11">
         <f t="shared" ref="FL16:FP16" si="32">FK16*(1+$AO$20)</f>
-        <v>428.49959156380953</v>
+        <v>440.98359644423795</v>
       </c>
       <c r="FM16" s="11">
         <f t="shared" si="32"/>
-        <v>424.21459564817144</v>
+        <v>436.57376047979557</v>
       </c>
       <c r="FN16" s="11">
         <f t="shared" si="32"/>
-        <v>419.97244969168975</v>
+        <v>432.2080228749976</v>
       </c>
       <c r="FO16" s="11">
         <f t="shared" si="32"/>
-        <v>415.77272519477282</v>
+        <v>427.8859426462476</v>
       </c>
       <c r="FP16" s="11">
         <f t="shared" si="32"/>
-        <v>411.61499794282508</v>
+        <v>423.60708321978512</v>
       </c>
     </row>
     <row r="17" spans="3:41" x14ac:dyDescent="0.25">
@@ -3404,10 +3517,10 @@
       <c r="N17" s="2">
         <v>105.5</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="2">
         <v>105.5</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="50">
         <v>105.5</v>
       </c>
       <c r="Q17" s="2">
@@ -3519,17 +3632,17 @@
         <f>N16/N17</f>
         <v>2.3033175355450237</v>
       </c>
-      <c r="O18" s="56">
+      <c r="O18" s="18">
         <f t="shared" ref="O18:S18" si="34">O16/O17</f>
         <v>3.0426540284360191</v>
       </c>
-      <c r="P18" s="20">
+      <c r="P18" s="54">
         <f t="shared" si="34"/>
         <v>0.77725118483412325</v>
       </c>
       <c r="Q18" s="18">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1.886255924170616</v>
       </c>
       <c r="R18" s="18">
         <f t="shared" si="34"/>
@@ -3571,50 +3684,50 @@
       </c>
       <c r="AC18" s="20">
         <f t="shared" ref="AC18:AL18" si="36">AC16/AC17</f>
-        <v>8.2112559241706169</v>
+        <v>8.5094672985781923</v>
       </c>
       <c r="AD18" s="18">
         <f t="shared" si="36"/>
-        <v>9.3437682369668416</v>
+        <v>9.6395775071090188</v>
       </c>
       <c r="AE18" s="18">
         <f t="shared" si="36"/>
-        <v>9.9244987720379054</v>
+        <v>10.235098505687246</v>
       </c>
       <c r="AF18" s="18">
         <f t="shared" si="36"/>
-        <v>10.537672097559216</v>
+        <v>10.86380181789106</v>
       </c>
       <c r="AG18" s="18">
         <f t="shared" si="36"/>
-        <v>11.185012540964182</v>
+        <v>11.52744874731258</v>
       </c>
       <c r="AH18" s="18">
         <f t="shared" si="36"/>
-        <v>11.868333711695245</v>
+        <v>12.227891728361053</v>
       </c>
       <c r="AI18" s="18">
         <f t="shared" si="36"/>
-        <v>12.589543057273291</v>
+        <v>12.967078974772418</v>
       </c>
       <c r="AJ18" s="18">
         <f t="shared" si="36"/>
-        <v>13.350646649930088</v>
+        <v>13.747059363304123</v>
       </c>
       <c r="AK18" s="18">
         <f t="shared" si="36"/>
-        <v>14.153754215413496</v>
+        <v>14.569987564456248</v>
       </c>
       <c r="AL18" s="18">
         <f t="shared" si="36"/>
-        <v>15.001084416160683</v>
+        <v>15.438129432655591</v>
       </c>
     </row>
     <row r="19" spans="3:41" x14ac:dyDescent="0.25">
       <c r="AN19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AO19" s="27">
+      <c r="AO19" s="25">
         <v>0.08</v>
       </c>
     </row>
@@ -3654,17 +3767,17 @@
         <f>(N4-J4)/J4</f>
         <v>9.1914155647084328E-2</v>
       </c>
-      <c r="O20" s="57">
+      <c r="O20" s="17">
         <f t="shared" ref="O20:S20" si="38">(O4-K4)/K4</f>
         <v>5.3953871499176277E-2</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P20" s="55">
         <f t="shared" si="38"/>
         <v>6.7412805830296726E-2</v>
       </c>
       <c r="Q20" s="17">
         <f t="shared" si="38"/>
-        <v>-1</v>
+        <v>4.0995024875621892E-2</v>
       </c>
       <c r="R20" s="17">
         <f t="shared" si="38"/>
@@ -3701,54 +3814,54 @@
       </c>
       <c r="AC20" s="21">
         <f t="shared" si="40"/>
-        <v>7.4999999999999886E-2</v>
+        <v>5.0000000000000114E-2</v>
       </c>
       <c r="AD20" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999954E-2</v>
+        <v>5.0000000000000121E-2</v>
       </c>
       <c r="AE20" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000121E-2</v>
+        <v>5.0000000000000107E-2</v>
       </c>
       <c r="AF20" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999968E-2</v>
+        <v>5.0000000000000107E-2</v>
       </c>
       <c r="AG20" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000031E-2</v>
+        <v>4.9999999999999982E-2</v>
       </c>
       <c r="AH20" s="17">
         <f t="shared" si="40"/>
-        <v>4.9999999999999996E-2</v>
+        <v>5.0000000000000072E-2</v>
       </c>
       <c r="AI20" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000037E-2</v>
+        <v>5.0000000000000031E-2</v>
       </c>
       <c r="AJ20" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000017E-2</v>
+        <v>5.0000000000000093E-2</v>
       </c>
       <c r="AK20" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000079E-2</v>
+        <v>5.0000000000000065E-2</v>
       </c>
       <c r="AL20" s="17">
         <f t="shared" si="40"/>
-        <v>5.0000000000000093E-2</v>
+        <v>5.0000000000000058E-2</v>
       </c>
       <c r="AN20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AO20" s="27">
+      <c r="AO20" s="25">
         <v>-0.01</v>
       </c>
     </row>
     <row r="21" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -3767,13 +3880,15 @@
       <c r="N21" s="17">
         <v>0.05</v>
       </c>
-      <c r="O21" s="57">
+      <c r="O21" s="17">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P21" s="55">
         <v>6.2E-2</v>
       </c>
-      <c r="Q21" s="17"/>
+      <c r="Q21" s="17">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
       <c r="V21" s="17"/>
@@ -3793,12 +3908,12 @@
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
       <c r="AL21" s="17"/>
-      <c r="AN21" s="28" t="s">
+      <c r="AN21" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AO21" s="30">
+      <c r="AO21" s="28">
         <f>NPV(AO19,AB16:FP16)</f>
-        <v>15546.542145838577</v>
+        <v>15990.769864760361</v>
       </c>
     </row>
     <row r="22" spans="3:41" x14ac:dyDescent="0.25">
@@ -3810,122 +3925,122 @@
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19">
-        <f>(H11-D11)/D11</f>
+        <f t="shared" ref="H22:S22" si="41">(H11-D11)/D11</f>
         <v>0.11657940663176265</v>
       </c>
       <c r="I22" s="19">
-        <f>(I11-E11)/E11</f>
+        <f t="shared" si="41"/>
         <v>9.3245033112582781E-2</v>
       </c>
       <c r="J22" s="19">
-        <f>(J11-F11)/F11</f>
+        <f t="shared" si="41"/>
         <v>9.3375065206051128E-2</v>
       </c>
       <c r="K22" s="19">
-        <f>(K11-G11)/G11</f>
+        <f t="shared" si="41"/>
         <v>0.1393939393939394</v>
       </c>
       <c r="L22" s="19">
-        <f>(L11-H11)/H11</f>
+        <f t="shared" si="41"/>
         <v>0.11597374179431072</v>
       </c>
       <c r="M22" s="19">
-        <f>(M11-I11)/I11</f>
+        <f t="shared" si="41"/>
         <v>0.11994184637751393</v>
       </c>
       <c r="N22" s="19">
-        <f>(N11-J11)/J11</f>
+        <f t="shared" si="41"/>
         <v>8.2061068702290074E-2</v>
       </c>
-      <c r="O22" s="58">
-        <f>(O11-K11)/K11</f>
+      <c r="O22" s="19">
+        <f t="shared" si="41"/>
         <v>4.9722479185938945E-2</v>
       </c>
-      <c r="P22" s="22">
-        <f>(P11-L11)/L11</f>
+      <c r="P22" s="56">
+        <f t="shared" si="41"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="Q22" s="19">
-        <f>(Q11-M11)/M11</f>
+        <f t="shared" si="41"/>
+        <v>3.440069234097793E-2</v>
+      </c>
+      <c r="R22" s="19">
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
-      <c r="R22" s="19">
-        <f>(R11-N11)/N11</f>
-        <v>-1</v>
-      </c>
       <c r="S22" s="19">
-        <f>(S11-O11)/O11</f>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="V22" s="19"/>
       <c r="W22" s="19">
-        <f>(W11-V11)/V11</f>
+        <f t="shared" ref="W22:AL22" si="42">(W11-V11)/V11</f>
         <v>1.9673314682790363E-2</v>
       </c>
       <c r="X22" s="19">
-        <f>(X11-W11)/W11</f>
+        <f t="shared" si="42"/>
         <v>7.6643950792105495E-2</v>
       </c>
       <c r="Y22" s="19">
-        <f>(Y11-X11)/X11</f>
+        <f t="shared" si="42"/>
         <v>7.8010686395396628E-2</v>
       </c>
       <c r="Z22" s="19">
-        <f>(Z11-Y11)/Y11</f>
+        <f t="shared" si="42"/>
         <v>8.8150068628946171E-2</v>
       </c>
       <c r="AA22" s="19">
-        <f>(AA11-Z11)/Z11</f>
+        <f t="shared" si="42"/>
         <v>0.11016117729502453</v>
       </c>
       <c r="AB22" s="19">
-        <f>(AB11-AA11)/AA11</f>
+        <f t="shared" si="42"/>
         <v>8.9950763792450442E-2</v>
       </c>
       <c r="AC22" s="22">
-        <f>(AC11-AB11)/AB11</f>
-        <v>7.6766375166502449E-2</v>
+        <f t="shared" si="42"/>
+        <v>4.6889442288759083E-2</v>
       </c>
       <c r="AD22" s="19">
-        <f>(AD11-AC11)/AC11</f>
-        <v>4.5549915893618363E-2</v>
+        <f t="shared" si="42"/>
+        <v>4.5552456098035897E-2</v>
       </c>
       <c r="AE22" s="19">
-        <f>(AE11-AD11)/AD11</f>
-        <v>5.0000000000000308E-2</v>
+        <f t="shared" si="42"/>
+        <v>4.9999999999999913E-2</v>
       </c>
       <c r="AF22" s="19">
-        <f>(AF11-AE11)/AE11</f>
-        <v>5.0000000000000065E-2</v>
+        <f t="shared" si="42"/>
+        <v>4.9999999999999975E-2</v>
       </c>
       <c r="AG22" s="19">
-        <f>(AG11-AF11)/AF11</f>
-        <v>5.00000000000001E-2</v>
+        <f t="shared" si="42"/>
+        <v>5.0000000000000287E-2</v>
       </c>
       <c r="AH22" s="19">
-        <f>(AH11-AG11)/AG11</f>
-        <v>4.9999999999999815E-2</v>
+        <f t="shared" si="42"/>
+        <v>4.9999999999999968E-2</v>
       </c>
       <c r="AI22" s="19">
-        <f>(AI11-AH11)/AH11</f>
-        <v>5.000000000000019E-2</v>
+        <f t="shared" si="42"/>
+        <v>0.05</v>
       </c>
       <c r="AJ22" s="19">
-        <f>(AJ11-AI11)/AI11</f>
-        <v>4.9999999999999899E-2</v>
+        <f t="shared" si="42"/>
+        <v>5.0000000000000266E-2</v>
       </c>
       <c r="AK22" s="19">
-        <f>(AK11-AJ11)/AJ11</f>
-        <v>5.0000000000000079E-2</v>
+        <f t="shared" si="42"/>
+        <v>4.9999999999999975E-2</v>
       </c>
       <c r="AL22" s="19">
-        <f>(AL11-AK11)/AK11</f>
-        <v>5.0000000000000072E-2</v>
+        <f t="shared" si="42"/>
+        <v>4.999999999999994E-2</v>
       </c>
       <c r="AN22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AO22" s="29">
+      <c r="AO22" s="27">
         <v>105.5</v>
       </c>
     </row>
@@ -3934,143 +4049,143 @@
         <v>23</v>
       </c>
       <c r="D23" s="9">
-        <f>D6/D4</f>
+        <f t="shared" ref="D23:S23" si="43">D6/D4</f>
         <v>0.89884020618556704</v>
       </c>
       <c r="E23" s="9">
-        <f>E6/E4</f>
+        <f t="shared" si="43"/>
         <v>0.90299430833951988</v>
       </c>
       <c r="F23" s="9">
-        <f>F6/F4</f>
+        <f t="shared" si="43"/>
         <v>0.91251489868891533</v>
       </c>
       <c r="G23" s="9">
-        <f>G6/G4</f>
+        <f t="shared" si="43"/>
         <v>0.9137889973803287</v>
       </c>
       <c r="H23" s="9">
-        <f>H6/H4</f>
+        <f t="shared" si="43"/>
         <v>0.90583090379008746</v>
       </c>
       <c r="I23" s="9">
-        <f>I6/I4</f>
+        <f t="shared" si="43"/>
         <v>0.90277464471012858</v>
       </c>
       <c r="J23" s="9">
-        <f>J6/J4</f>
+        <f t="shared" si="43"/>
         <v>0.91675699111207454</v>
       </c>
       <c r="K23" s="9">
-        <f>K6/K4</f>
+        <f t="shared" si="43"/>
         <v>0.92071663920922575</v>
       </c>
       <c r="L23" s="9">
-        <f>L6/L4</f>
+        <f t="shared" si="43"/>
         <v>0.90942217595002606</v>
       </c>
       <c r="M23" s="9">
-        <f>M6/M4</f>
+        <f t="shared" si="43"/>
         <v>0.90467661691542289</v>
       </c>
       <c r="N23" s="9">
-        <f>N6/N4</f>
+        <f t="shared" si="43"/>
         <v>0.91681556482032955</v>
       </c>
-      <c r="O23" s="59">
-        <f>O6/O4</f>
+      <c r="O23" s="9">
+        <f t="shared" si="43"/>
         <v>0.9198905822586948</v>
       </c>
-      <c r="P23" s="23">
-        <f>P6/P4</f>
+      <c r="P23" s="57">
+        <f t="shared" si="43"/>
         <v>0.90660814435503534</v>
       </c>
-      <c r="Q23" s="9" t="e">
-        <f>Q6/Q4</f>
+      <c r="Q23" s="9">
+        <f t="shared" si="43"/>
+        <v>0.90594532594150257</v>
+      </c>
+      <c r="R23" s="9" t="e">
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R23" s="9" t="e">
-        <f>R6/R4</f>
+      <c r="S23" s="9" t="e">
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S23" s="9" t="e">
-        <f>S6/S4</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="V23" s="9">
-        <f>V6/V4</f>
+        <f t="shared" ref="V23:AL23" si="44">V6/V4</f>
         <v>0.91489543320529232</v>
       </c>
       <c r="W23" s="9">
-        <f>W6/W4</f>
+        <f t="shared" si="44"/>
         <v>0.91907749979626763</v>
       </c>
       <c r="X23" s="9">
-        <f>X6/X4</f>
+        <f t="shared" si="44"/>
         <v>0.91604197901049478</v>
       </c>
       <c r="Y23" s="9">
-        <f>Y6/Y4</f>
+        <f t="shared" si="44"/>
         <v>0.91115140525838623</v>
       </c>
       <c r="Z23" s="9">
-        <f>Z6/Z4</f>
+        <f t="shared" si="44"/>
         <v>0.90765171503957787</v>
       </c>
       <c r="AA23" s="9">
-        <f>AA6/AA4</f>
+        <f t="shared" si="44"/>
         <v>0.91212785598892221</v>
       </c>
       <c r="AB23" s="9">
-        <f>AB6/AB4</f>
+        <f t="shared" si="44"/>
         <v>0.91294290821154456</v>
       </c>
       <c r="AC23" s="23">
-        <f>AC6/AC4</f>
+        <f t="shared" si="44"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AD23" s="9">
-        <f>AD6/AD4</f>
+        <f t="shared" si="44"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="AE23" s="9">
-        <f>AE6/AE4</f>
+        <f t="shared" si="44"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AF23" s="9">
+        <f t="shared" si="44"/>
         <v>0.9</v>
       </c>
-      <c r="AF23" s="9">
-        <f>AF6/AF4</f>
+      <c r="AG23" s="9">
+        <f t="shared" si="44"/>
+        <v>0.9</v>
+      </c>
+      <c r="AH23" s="9">
+        <f t="shared" si="44"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="AG23" s="9">
-        <f>AG6/AG4</f>
+      <c r="AI23" s="9">
+        <f t="shared" si="44"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AJ23" s="9">
+        <f t="shared" si="44"/>
         <v>0.9</v>
       </c>
-      <c r="AH23" s="9">
-        <f>AH6/AH4</f>
+      <c r="AK23" s="9">
+        <f t="shared" si="44"/>
         <v>0.9</v>
       </c>
-      <c r="AI23" s="9">
-        <f>AI6/AI4</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="AJ23" s="9">
-        <f>AJ6/AJ4</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="AK23" s="9">
-        <f>AK6/AK4</f>
-        <v>0.89999999999999991</v>
-      </c>
       <c r="AL23" s="9">
-        <f>AL6/AL4</f>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="44"/>
+        <v>0.9</v>
       </c>
       <c r="AN23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AO23" s="43">
+      <c r="AO23" s="41">
         <f>AO21/AO22</f>
-        <v>147.36058906008131</v>
+        <v>151.57127833896078</v>
       </c>
     </row>
     <row r="24" spans="3:41" x14ac:dyDescent="0.25">
@@ -4078,143 +4193,143 @@
         <v>4</v>
       </c>
       <c r="D24" s="9">
-        <f>D12/D4</f>
+        <f t="shared" ref="D24:S24" si="45">D12/D4</f>
         <v>7.6997422680412375E-2</v>
       </c>
       <c r="E24" s="9">
-        <f>E12/E4</f>
+        <f t="shared" si="45"/>
         <v>6.582529076961148E-2</v>
       </c>
       <c r="F24" s="9">
-        <f>F12/F4</f>
+        <f t="shared" si="45"/>
         <v>8.6054827175208584E-2</v>
       </c>
       <c r="G24" s="9">
-        <f>G12/G4</f>
+        <f t="shared" si="45"/>
         <v>9.6213384139080732E-2</v>
       </c>
       <c r="H24" s="9">
-        <f>H12/H4</f>
+        <f t="shared" si="45"/>
         <v>6.7346938775510207E-2</v>
       </c>
       <c r="I24" s="9">
-        <f>I12/I4</f>
+        <f t="shared" si="45"/>
         <v>6.9027746447101287E-2</v>
       </c>
       <c r="J24" s="9">
-        <f>J12/J4</f>
+        <f t="shared" si="45"/>
         <v>9.1263819640147403E-2</v>
       </c>
       <c r="K24" s="9">
-        <f>K12/K4</f>
+        <f t="shared" si="45"/>
         <v>0.10955518945634267</v>
       </c>
       <c r="L24" s="9">
-        <f>L12/L4</f>
+        <f t="shared" si="45"/>
         <v>7.0796460176991149E-2</v>
       </c>
       <c r="M24" s="9">
-        <f>M12/M4</f>
+        <f t="shared" si="45"/>
         <v>8.0199004975124374E-2</v>
       </c>
       <c r="N24" s="9">
-        <f>N12/N4</f>
+        <f t="shared" si="45"/>
         <v>9.9463966646813576E-2</v>
       </c>
-      <c r="O24" s="59">
-        <f>O12/O4</f>
+      <c r="O24" s="9">
+        <f t="shared" si="45"/>
         <v>0.11313012895662368</v>
       </c>
-      <c r="P24" s="23">
-        <f>P12/P4</f>
+      <c r="P24" s="57">
+        <f t="shared" si="45"/>
         <v>7.1445988783223599E-2</v>
       </c>
-      <c r="Q24" s="9" t="e">
-        <f>Q12/Q4</f>
+      <c r="Q24" s="9">
+        <f t="shared" si="45"/>
+        <v>8.6025616516918368E-2</v>
+      </c>
+      <c r="R24" s="9" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R24" s="9" t="e">
-        <f>R12/R4</f>
+      <c r="S24" s="9" t="e">
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S24" s="9" t="e">
-        <f>S12/S4</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="V24" s="9">
-        <f>V12/V4</f>
+        <f t="shared" ref="V24:AL24" si="46">V12/V4</f>
         <v>5.4118651301749893E-2</v>
       </c>
       <c r="W24" s="9">
-        <f>W12/W4</f>
+        <f t="shared" si="46"/>
         <v>7.9211148235677611E-2</v>
       </c>
       <c r="X24" s="9">
-        <f>X12/X4</f>
+        <f t="shared" si="46"/>
         <v>8.8080959520239879E-2</v>
       </c>
       <c r="Y24" s="9">
-        <f>Y12/Y4</f>
+        <f t="shared" si="46"/>
         <v>8.543134109770556E-2</v>
       </c>
       <c r="Z24" s="9">
-        <f>Z12/Z4</f>
+        <f t="shared" si="46"/>
         <v>8.1665486839564969E-2</v>
       </c>
       <c r="AA24" s="9">
-        <f>AA12/AA4</f>
+        <f t="shared" si="46"/>
         <v>8.5968151396261253E-2</v>
       </c>
       <c r="AB24" s="9">
-        <f>AB12/AB4</f>
+        <f t="shared" si="46"/>
         <v>9.2261591841026183E-2</v>
       </c>
       <c r="AC24" s="23">
-        <f>AC12/AC4</f>
-        <v>9.0770050834651686E-2</v>
+        <f t="shared" si="46"/>
+        <v>9.4950708703205752E-2</v>
       </c>
       <c r="AD24" s="9">
-        <f>AD12/AD4</f>
-        <v>9.4623526783058215E-2</v>
+        <f t="shared" si="46"/>
+        <v>9.8784276757000133E-2</v>
       </c>
       <c r="AE24" s="9">
-        <f>AE12/AE4</f>
-        <v>9.4623526783058062E-2</v>
+        <f t="shared" si="46"/>
+        <v>9.87842767570003E-2</v>
       </c>
       <c r="AF24" s="9">
-        <f>AF12/AF4</f>
-        <v>9.4623526783057979E-2</v>
+        <f t="shared" si="46"/>
+        <v>9.8784276757000411E-2</v>
       </c>
       <c r="AG24" s="9">
-        <f>AG12/AG4</f>
-        <v>9.462352678305791E-2</v>
+        <f t="shared" si="46"/>
+        <v>9.8784276757000161E-2</v>
       </c>
       <c r="AH24" s="9">
-        <f>AH12/AH4</f>
-        <v>9.4623526783058062E-2</v>
+        <f t="shared" si="46"/>
+        <v>9.8784276757000244E-2</v>
       </c>
       <c r="AI24" s="9">
-        <f>AI12/AI4</f>
-        <v>9.4623526783057937E-2</v>
+        <f t="shared" si="46"/>
+        <v>9.8784276757000272E-2</v>
       </c>
       <c r="AJ24" s="9">
-        <f>AJ12/AJ4</f>
-        <v>9.4623526783058035E-2</v>
+        <f t="shared" si="46"/>
+        <v>9.8784276757000133E-2</v>
       </c>
       <c r="AK24" s="9">
-        <f>AK12/AK4</f>
-        <v>9.4623526783058048E-2</v>
+        <f t="shared" si="46"/>
+        <v>9.8784276757000203E-2</v>
       </c>
       <c r="AL24" s="9">
-        <f>AL12/AL4</f>
-        <v>9.4623526783058062E-2</v>
+        <f t="shared" si="46"/>
+        <v>9.8784276757000314E-2</v>
       </c>
       <c r="AN24" s="1" t="s">
         <v>110</v>
       </c>
       <c r="AO24" s="17">
         <f>(AO23-B4)/B4</f>
-        <v>0.40343418152458388</v>
+        <v>0.68412531487734196</v>
       </c>
     </row>
     <row r="25" spans="3:41" x14ac:dyDescent="0.25">
@@ -4297,7 +4412,7 @@
     </row>
     <row r="27" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -4312,15 +4427,19 @@
       <c r="L27" s="13">
         <v>109281</v>
       </c>
-      <c r="M27" s="13"/>
+      <c r="M27" s="13">
+        <v>110744</v>
+      </c>
       <c r="N27" s="13"/>
-      <c r="O27" s="55">
+      <c r="O27" s="13">
         <v>113530</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="53">
         <v>113082</v>
       </c>
-      <c r="Q27" s="13"/>
+      <c r="Q27" s="13">
+        <v>113176</v>
+      </c>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="V27" s="9"/>
@@ -4343,58 +4462,58 @@
     </row>
     <row r="28" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="19" t="e">
-        <f t="shared" ref="H28:N28" si="41">(H27-D27)/D27</f>
+        <f t="shared" ref="H28:N28" si="47">(H27-D27)/D27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="19" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="19" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="19" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="19" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="19" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="19" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="58">
+      <c r="O28" s="19">
         <f>(O27-K27)/K27</f>
         <v>3.6708976349191853E-2</v>
       </c>
-      <c r="P28" s="22">
-        <f t="shared" ref="P28:S28" si="42">(P27-L27)/L27</f>
+      <c r="P28" s="56">
+        <f t="shared" ref="P28:S28" si="48">(P27-L27)/L27</f>
         <v>3.4781892552227744E-2</v>
       </c>
-      <c r="Q28" s="58" t="e">
-        <f t="shared" si="42"/>
+      <c r="Q28" s="19">
+        <f t="shared" si="48"/>
+        <v>2.1960557682583256E-2</v>
+      </c>
+      <c r="R28" s="19" t="e">
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R28" s="58" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="58">
-        <f t="shared" si="42"/>
+      <c r="S28" s="19">
+        <f t="shared" si="48"/>
         <v>-1</v>
       </c>
       <c r="V28" s="9"/>
@@ -4429,8 +4548,8 @@
       <c r="L30" s="13"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="24"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="58"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -4477,13 +4596,15 @@
       <c r="N31" s="13">
         <v>7595</v>
       </c>
-      <c r="O31" s="55">
+      <c r="O31" s="13">
         <v>7767</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="53">
         <v>7761</v>
       </c>
-      <c r="Q31" s="13"/>
+      <c r="Q31" s="13">
+        <v>7717</v>
+      </c>
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
     </row>
@@ -4524,13 +4645,15 @@
       <c r="N32" s="13">
         <v>1087</v>
       </c>
-      <c r="O32" s="55">
+      <c r="O32" s="13">
         <v>1173</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="53">
         <v>1155</v>
       </c>
-      <c r="Q32" s="13"/>
+      <c r="Q32" s="13">
+        <v>1184</v>
+      </c>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
     </row>
@@ -4571,13 +4694,15 @@
       <c r="N33" s="13">
         <v>10133</v>
       </c>
-      <c r="O33" s="55">
+      <c r="O33" s="13">
         <v>9981</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="53">
         <v>10923</v>
       </c>
-      <c r="Q33" s="13"/>
+      <c r="Q33" s="13">
+        <v>10850</v>
+      </c>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
     </row>
@@ -4618,13 +4743,15 @@
       <c r="N34" s="13">
         <v>1059</v>
       </c>
-      <c r="O34" s="55">
+      <c r="O34" s="13">
         <v>1086</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="53">
         <v>1108</v>
       </c>
-      <c r="Q34" s="13"/>
+      <c r="Q34" s="13">
+        <v>1090</v>
+      </c>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
     </row>
@@ -4665,13 +4792,15 @@
       <c r="N35" s="13">
         <v>178</v>
       </c>
-      <c r="O35" s="55">
+      <c r="O35" s="13">
         <v>177</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="53">
         <v>193</v>
       </c>
-      <c r="Q35" s="13"/>
+      <c r="Q35" s="13">
+        <v>193</v>
+      </c>
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
     </row>
@@ -4712,13 +4841,15 @@
       <c r="N36" s="13">
         <v>1122</v>
       </c>
-      <c r="O36" s="55">
+      <c r="O36" s="13">
         <v>1055</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="53">
         <v>1438</v>
       </c>
-      <c r="Q36" s="13"/>
+      <c r="Q36" s="13">
+        <v>1064</v>
+      </c>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
     </row>
@@ -4759,13 +4890,15 @@
       <c r="N37" s="13">
         <v>1001</v>
       </c>
-      <c r="O37" s="55">
+      <c r="O37" s="13">
         <v>777</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="53">
         <v>793</v>
       </c>
-      <c r="Q37" s="13"/>
+      <c r="Q37" s="13">
+        <v>661</v>
+      </c>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
     </row>
@@ -4774,27 +4907,27 @@
         <v>26</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" ref="D38:M38" si="43">SUM(D31:D37)</f>
+        <f t="shared" ref="D38:M38" si="49">SUM(D31:D37)</f>
         <v>19708</v>
       </c>
       <c r="E38" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>19592</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>20089</v>
       </c>
       <c r="G38" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>19918</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>21184</v>
       </c>
       <c r="I38" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>20807</v>
       </c>
       <c r="J38" s="11">
@@ -4802,39 +4935,39 @@
         <v>23145</v>
       </c>
       <c r="K38" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>22730</v>
       </c>
       <c r="L38" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>23344</v>
       </c>
       <c r="M38" s="11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>23018</v>
       </c>
       <c r="N38" s="11">
         <f>SUM(N31:N37)</f>
         <v>22175</v>
       </c>
-      <c r="O38" s="54">
-        <f t="shared" ref="O38:S38" si="44">SUM(O31:O37)</f>
+      <c r="O38" s="11">
+        <f t="shared" ref="O38:S38" si="50">SUM(O31:O37)</f>
         <v>22016</v>
       </c>
-      <c r="P38" s="12">
-        <f t="shared" si="44"/>
+      <c r="P38" s="52">
+        <f t="shared" si="50"/>
         <v>23371</v>
       </c>
       <c r="Q38" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
+        <v>22759</v>
+      </c>
+      <c r="R38" s="11">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R38" s="11">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
       <c r="S38" s="11">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -4875,13 +5008,15 @@
       <c r="N39" s="15">
         <v>6292</v>
       </c>
-      <c r="O39" s="61">
+      <c r="O39" s="15">
         <v>6628</v>
       </c>
-      <c r="P39" s="25">
+      <c r="P39" s="59">
         <v>6700</v>
       </c>
-      <c r="Q39" s="15"/>
+      <c r="Q39" s="15">
+        <v>6642</v>
+      </c>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
     </row>
@@ -4922,13 +5057,15 @@
       <c r="N40" s="13">
         <v>1538</v>
       </c>
-      <c r="O40" s="55">
+      <c r="O40" s="13">
         <v>1183</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P40" s="53">
         <v>1164</v>
       </c>
-      <c r="Q40" s="13"/>
+      <c r="Q40" s="13">
+        <v>1126</v>
+      </c>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
     </row>
@@ -4969,13 +5106,15 @@
       <c r="N41" s="13">
         <v>9146</v>
       </c>
-      <c r="O41" s="55">
+      <c r="O41" s="13">
         <v>9012</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P41" s="53">
         <v>10014</v>
       </c>
-      <c r="Q41" s="13"/>
+      <c r="Q41" s="13">
+        <v>9964</v>
+      </c>
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
     </row>
@@ -5016,13 +5155,15 @@
       <c r="N42" s="13">
         <v>275</v>
       </c>
-      <c r="O42" s="55">
+      <c r="O42" s="13">
         <v>319</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P42" s="53">
         <v>336</v>
       </c>
-      <c r="Q42" s="13"/>
+      <c r="Q42" s="13">
+        <v>331</v>
+      </c>
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
     </row>
@@ -5063,13 +5204,15 @@
       <c r="N43" s="13">
         <v>439</v>
       </c>
-      <c r="O43" s="55">
+      <c r="O43" s="13">
         <v>315</v>
       </c>
-      <c r="P43" s="14">
+      <c r="P43" s="53">
         <v>530</v>
       </c>
-      <c r="Q43" s="13"/>
+      <c r="Q43" s="13">
+        <v>43</v>
+      </c>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
     </row>
@@ -5110,13 +5253,15 @@
       <c r="N44" s="13">
         <v>1592</v>
       </c>
-      <c r="O44" s="55">
+      <c r="O44" s="13">
         <v>1593</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P44" s="53">
         <v>1566</v>
       </c>
-      <c r="Q44" s="13"/>
+      <c r="Q44" s="13">
+        <v>1615</v>
+      </c>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
     </row>
@@ -5157,13 +5302,15 @@
       <c r="N45" s="13">
         <v>2893</v>
       </c>
-      <c r="O45" s="55">
+      <c r="O45" s="13">
         <v>2967</v>
       </c>
-      <c r="P45" s="14">
+      <c r="P45" s="53">
         <v>3060</v>
       </c>
-      <c r="Q45" s="13"/>
+      <c r="Q45" s="13">
+        <v>3040</v>
+      </c>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
     </row>
@@ -5172,67 +5319,67 @@
         <v>28</v>
       </c>
       <c r="D46" s="15">
-        <f t="shared" ref="D46:M46" si="45">SUM(D40:D45)</f>
+        <f t="shared" ref="D46:M46" si="51">SUM(D40:D45)</f>
         <v>13874</v>
       </c>
       <c r="E46" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>13821</v>
       </c>
       <c r="F46" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>14183</v>
       </c>
       <c r="G46" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>13784</v>
       </c>
       <c r="H46" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>15011</v>
       </c>
       <c r="I46" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>14838</v>
       </c>
       <c r="J46" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>17113</v>
       </c>
       <c r="K46" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>16464</v>
       </c>
       <c r="L46" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>17020</v>
       </c>
       <c r="M46" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>16682</v>
       </c>
       <c r="N46" s="15">
         <f>SUM(N40:N45)</f>
         <v>15883</v>
       </c>
-      <c r="O46" s="61">
-        <f t="shared" ref="O46:S46" si="46">SUM(O40:O45)</f>
+      <c r="O46" s="15">
+        <f t="shared" ref="O46:S46" si="52">SUM(O40:O45)</f>
         <v>15389</v>
       </c>
-      <c r="P46" s="25">
-        <f t="shared" si="46"/>
+      <c r="P46" s="59">
+        <f t="shared" si="52"/>
         <v>16670</v>
       </c>
       <c r="Q46" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
+        <v>16119</v>
+      </c>
+      <c r="R46" s="15">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="R46" s="15">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
       <c r="S46" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -5241,67 +5388,67 @@
         <v>29</v>
       </c>
       <c r="D47" s="11">
-        <f t="shared" ref="D47:M47" si="47">D39+D46</f>
+        <f t="shared" ref="D47:M47" si="53">D39+D46</f>
         <v>19709</v>
       </c>
       <c r="E47" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>19593</v>
       </c>
       <c r="F47" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>20088</v>
       </c>
       <c r="G47" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>19918</v>
       </c>
       <c r="H47" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>21184</v>
       </c>
       <c r="I47" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>20907</v>
       </c>
       <c r="J47" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>23144</v>
       </c>
       <c r="K47" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>22729</v>
       </c>
       <c r="L47" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>23344</v>
       </c>
       <c r="M47" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>23018</v>
       </c>
       <c r="N47" s="11">
         <f>N39+N46</f>
         <v>22175</v>
       </c>
-      <c r="O47" s="54">
-        <f t="shared" ref="O47:S47" si="48">O39+O46</f>
+      <c r="O47" s="11">
+        <f t="shared" ref="O47:S47" si="54">O39+O46</f>
         <v>22017</v>
       </c>
-      <c r="P47" s="12">
-        <f t="shared" si="48"/>
+      <c r="P47" s="52">
+        <f t="shared" si="54"/>
         <v>23370</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
+        <v>22761</v>
+      </c>
+      <c r="R47" s="11">
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="R47" s="11">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
       <c r="S47" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -5336,100 +5483,100 @@
         <v>30</v>
       </c>
       <c r="D50" s="13">
-        <f>D12</f>
+        <f t="shared" ref="D50:S50" si="55">D12</f>
         <v>239</v>
       </c>
       <c r="E50" s="13">
-        <f>E12</f>
+        <f t="shared" si="55"/>
         <v>266</v>
       </c>
       <c r="F50" s="13">
-        <f>F12</f>
+        <f t="shared" si="55"/>
         <v>361</v>
       </c>
       <c r="G50" s="13">
-        <f>G12</f>
+        <f t="shared" si="55"/>
         <v>404</v>
       </c>
       <c r="H50" s="13">
-        <f>H12</f>
+        <f t="shared" si="55"/>
         <v>231</v>
       </c>
       <c r="I50" s="13">
-        <f>I12</f>
+        <f t="shared" si="55"/>
         <v>306</v>
       </c>
       <c r="J50" s="13">
-        <f>J12</f>
+        <f t="shared" si="55"/>
         <v>421</v>
       </c>
       <c r="K50" s="13">
-        <f>K12</f>
+        <f t="shared" si="55"/>
         <v>532</v>
       </c>
       <c r="L50" s="13">
-        <f>L12</f>
+        <f t="shared" si="55"/>
         <v>272</v>
       </c>
       <c r="M50" s="13">
-        <f>M12</f>
+        <f t="shared" si="55"/>
         <v>403</v>
       </c>
       <c r="N50" s="13">
-        <f>N12</f>
+        <f t="shared" si="55"/>
         <v>501</v>
       </c>
-      <c r="O50" s="55">
-        <f>O12</f>
+      <c r="O50" s="13">
+        <f t="shared" si="55"/>
         <v>579</v>
       </c>
-      <c r="P50" s="14">
-        <f>P12</f>
+      <c r="P50" s="53">
+        <f t="shared" si="55"/>
         <v>293</v>
       </c>
       <c r="Q50" s="13">
-        <f>Q12</f>
+        <f t="shared" si="55"/>
+        <v>450</v>
+      </c>
+      <c r="R50" s="13">
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="R50" s="13">
-        <f>R12</f>
+      <c r="S50" s="13">
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="S50" s="13">
-        <f>S12</f>
-        <v>0</v>
-      </c>
       <c r="V50" s="13">
-        <f>V12</f>
+        <f t="shared" ref="V50:AA50" si="56">V12</f>
         <v>634</v>
       </c>
       <c r="W50" s="13">
-        <f>W12</f>
+        <f t="shared" si="56"/>
         <v>972</v>
       </c>
       <c r="X50" s="13">
-        <f>X12</f>
+        <f t="shared" si="56"/>
         <v>1175</v>
       </c>
       <c r="Y50" s="13">
-        <f>Y12</f>
+        <f t="shared" si="56"/>
         <v>1225</v>
       </c>
       <c r="Z50" s="13">
-        <f>Z12</f>
+        <f t="shared" si="56"/>
         <v>1269</v>
       </c>
       <c r="AA50" s="13">
-        <f>AA12</f>
+        <f t="shared" si="56"/>
         <v>1490</v>
       </c>
       <c r="AB50" s="13">
-        <f t="shared" ref="AB50:AC50" si="49">AB12</f>
+        <f t="shared" ref="AB50:AC50" si="57">AB12</f>
         <v>1755</v>
       </c>
       <c r="AC50" s="14">
-        <f t="shared" si="49"/>
-        <v>1856.125</v>
+        <f t="shared" si="57"/>
+        <v>1896.4599999999991</v>
       </c>
     </row>
     <row r="51" spans="3:29" x14ac:dyDescent="0.25">
@@ -5469,13 +5616,15 @@
       <c r="N51" s="2">
         <v>499</v>
       </c>
-      <c r="O51" s="55">
+      <c r="O51" s="13">
         <v>578</v>
       </c>
-      <c r="P51" s="14">
+      <c r="P51" s="53">
         <v>292</v>
       </c>
-      <c r="Q51" s="13"/>
+      <c r="Q51" s="13">
+        <v>450</v>
+      </c>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="V51" s="13">
@@ -5539,13 +5688,15 @@
       <c r="N52" s="2">
         <v>583</v>
       </c>
-      <c r="O52" s="55">
+      <c r="O52" s="13">
         <v>589</v>
       </c>
-      <c r="P52" s="14">
+      <c r="P52" s="53">
         <v>571</v>
       </c>
-      <c r="Q52" s="13"/>
+      <c r="Q52" s="13">
+        <v>590</v>
+      </c>
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
       <c r="V52" s="13">
@@ -5609,13 +5760,15 @@
       <c r="N53" s="2">
         <v>-8</v>
       </c>
-      <c r="O53" s="55">
+      <c r="O53" s="13">
         <v>0</v>
       </c>
-      <c r="P53" s="14">
+      <c r="P53" s="53">
         <v>19</v>
       </c>
-      <c r="Q53" s="13"/>
+      <c r="Q53" s="13">
+        <v>-3</v>
+      </c>
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
       <c r="V53" s="13">
@@ -5637,7 +5790,7 @@
         <v>-4</v>
       </c>
       <c r="AB53" s="13">
-        <f t="shared" ref="AB53:AB54" si="50">SUM(L53:O53)</f>
+        <f t="shared" ref="AB53:AB54" si="58">SUM(L53:O53)</f>
         <v>-31</v>
       </c>
       <c r="AC53" s="14"/>
@@ -5679,13 +5832,15 @@
       <c r="N54" s="2">
         <v>-96</v>
       </c>
-      <c r="O54" s="55">
+      <c r="O54" s="13">
         <v>-14</v>
       </c>
-      <c r="P54" s="14">
+      <c r="P54" s="53">
         <v>-85</v>
       </c>
-      <c r="Q54" s="13"/>
+      <c r="Q54" s="13">
+        <v>-96</v>
+      </c>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
       <c r="V54" s="13">
@@ -5707,7 +5862,7 @@
         <v>-255</v>
       </c>
       <c r="AB54" s="13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>-273</v>
       </c>
       <c r="AC54" s="14"/>
@@ -5749,13 +5904,15 @@
       <c r="N55" s="2">
         <v>-145</v>
       </c>
-      <c r="O55" s="55">
+      <c r="O55" s="13">
         <v>32</v>
       </c>
-      <c r="P55" s="14">
+      <c r="P55" s="53">
         <v>-251</v>
       </c>
-      <c r="Q55" s="13"/>
+      <c r="Q55" s="13">
+        <v>405</v>
+      </c>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
       <c r="V55" s="13">
@@ -5793,87 +5950,87 @@
         <v>34</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:M56" si="51">SUM(D51:D55)</f>
+        <f t="shared" ref="D56:M56" si="59">SUM(D51:D55)</f>
         <v>317</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>927</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>713</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>937</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>432</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>1143</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>686</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>1246</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>453</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>1270</v>
       </c>
       <c r="N56" s="1">
         <f>SUM(N51:N55)</f>
         <v>833</v>
       </c>
-      <c r="O56" s="54">
-        <f t="shared" ref="O56:S56" si="52">SUM(O51:O55)</f>
+      <c r="O56" s="11">
+        <f t="shared" ref="O56:S56" si="60">SUM(O51:O55)</f>
         <v>1185</v>
       </c>
-      <c r="P56" s="12">
-        <f t="shared" si="52"/>
+      <c r="P56" s="52">
+        <f t="shared" si="60"/>
         <v>546</v>
       </c>
       <c r="Q56" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
+        <v>1346</v>
+      </c>
+      <c r="R56" s="11">
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="R56" s="11">
-        <f t="shared" si="52"/>
+      <c r="S56" s="11">
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="S56" s="11">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
       <c r="V56" s="11">
-        <f t="shared" ref="V56:Z56" si="53">SUM(V51:V55)</f>
+        <f t="shared" ref="V56:Z56" si="61">SUM(V51:V55)</f>
         <v>684</v>
       </c>
       <c r="W56" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>2522</v>
       </c>
       <c r="X56" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>2872</v>
       </c>
       <c r="Y56" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>2831</v>
       </c>
       <c r="Z56" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>2895</v>
       </c>
       <c r="AA56" s="11">
@@ -5881,11 +6038,11 @@
         <v>3503</v>
       </c>
       <c r="AB56" s="11">
-        <f t="shared" ref="AB56:AC56" si="54">SUM(AB51:AB55)</f>
+        <f t="shared" ref="AB56:AC56" si="62">SUM(AB51:AB55)</f>
         <v>3741</v>
       </c>
       <c r="AC56" s="12">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
     </row>
@@ -5902,8 +6059,8 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="14"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="53"/>
       <c r="Q57" s="13"/>
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
@@ -5955,13 +6112,15 @@
         <f>-60-18-23-23-4</f>
         <v>-128</v>
       </c>
-      <c r="O58" s="55">
+      <c r="O58" s="13">
         <v>-276</v>
       </c>
-      <c r="P58" s="14">
+      <c r="P58" s="53">
         <v>-95</v>
       </c>
-      <c r="Q58" s="13"/>
+      <c r="Q58" s="13">
+        <v>-139</v>
+      </c>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
       <c r="V58" s="13">
@@ -5999,87 +6158,87 @@
         <v>36</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" ref="D59:M59" si="55">SUM(D58)</f>
+        <f t="shared" ref="D59:M59" si="63">SUM(D58)</f>
         <v>-170</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>-146</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>-91</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>-74</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>-261</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>-154</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>-371</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>-84</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>-170</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>-105</v>
       </c>
       <c r="N59" s="1">
         <f>SUM(N58)</f>
         <v>-128</v>
       </c>
-      <c r="O59" s="54">
-        <f t="shared" ref="O59:S59" si="56">SUM(O58)</f>
+      <c r="O59" s="11">
+        <f t="shared" ref="O59:S59" si="64">SUM(O58)</f>
         <v>-276</v>
       </c>
-      <c r="P59" s="12">
-        <f t="shared" si="56"/>
+      <c r="P59" s="52">
+        <f t="shared" si="64"/>
         <v>-95</v>
       </c>
       <c r="Q59" s="11">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
+        <v>-139</v>
+      </c>
+      <c r="R59" s="11">
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="R59" s="11">
-        <f t="shared" si="56"/>
+      <c r="S59" s="11">
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="S59" s="11">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
       <c r="V59" s="11">
-        <f t="shared" ref="V59:Z59" si="57">SUM(V58)</f>
+        <f t="shared" ref="V59:Z59" si="65">SUM(V58)</f>
         <v>-558</v>
       </c>
       <c r="W59" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>-374</v>
       </c>
       <c r="X59" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>-437</v>
       </c>
       <c r="Y59" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>-536</v>
       </c>
       <c r="Z59" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>-480</v>
       </c>
       <c r="AA59" s="11">
@@ -6087,11 +6246,11 @@
         <v>-872</v>
       </c>
       <c r="AB59" s="11">
-        <f t="shared" ref="AB59:AC59" si="58">SUM(AB58)</f>
+        <f t="shared" ref="AB59:AC59" si="66">SUM(AB58)</f>
         <v>-679</v>
       </c>
       <c r="AC59" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
@@ -6105,8 +6264,8 @@
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="14"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="53"/>
       <c r="Q60" s="13"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
@@ -6156,13 +6315,15 @@
       <c r="N61" s="2">
         <v>-6</v>
       </c>
-      <c r="O61" s="55">
+      <c r="O61" s="13">
         <v>-23</v>
       </c>
-      <c r="P61" s="14">
+      <c r="P61" s="53">
         <v>-18</v>
       </c>
-      <c r="Q61" s="13"/>
+      <c r="Q61" s="13">
+        <v>-16</v>
+      </c>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
       <c r="V61" s="13">
@@ -6226,13 +6387,15 @@
       <c r="N62" s="2">
         <v>-152</v>
       </c>
-      <c r="O62" s="55">
+      <c r="O62" s="13">
         <v>-153</v>
       </c>
-      <c r="P62" s="14">
+      <c r="P62" s="53">
         <v>-161</v>
       </c>
-      <c r="Q62" s="13"/>
+      <c r="Q62" s="13">
+        <v>-167</v>
+      </c>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
       <c r="V62" s="13">
@@ -6254,7 +6417,7 @@
         <v>-671</v>
       </c>
       <c r="AB62" s="13">
-        <f t="shared" ref="AB62:AB67" si="59">SUM(L62:O62)</f>
+        <f t="shared" ref="AB62:AB67" si="67">SUM(L62:O62)</f>
         <v>-629</v>
       </c>
       <c r="AC62" s="14"/>
@@ -6296,13 +6459,15 @@
       <c r="N63" s="2">
         <v>0</v>
       </c>
-      <c r="O63" s="55">
+      <c r="O63" s="13">
         <v>0</v>
       </c>
-      <c r="P63" s="14">
+      <c r="P63" s="53">
         <v>0</v>
       </c>
-      <c r="Q63" s="13"/>
+      <c r="Q63" s="13">
+        <v>-223</v>
+      </c>
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
       <c r="V63" s="13">
@@ -6324,7 +6489,7 @@
         <v>-185</v>
       </c>
       <c r="AB63" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>-178</v>
       </c>
       <c r="AC63" s="14"/>
@@ -6366,13 +6531,15 @@
       <c r="N64" s="2">
         <v>-282</v>
       </c>
-      <c r="O64" s="55">
+      <c r="O64" s="13">
         <v>0</v>
       </c>
-      <c r="P64" s="14">
+      <c r="P64" s="53">
         <v>0</v>
       </c>
-      <c r="Q64" s="13"/>
+      <c r="Q64" s="13">
+        <v>0</v>
+      </c>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
       <c r="V64" s="13">
@@ -6394,7 +6561,7 @@
         <v>-268</v>
       </c>
       <c r="AB64" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>-282</v>
       </c>
       <c r="AC64" s="14"/>
@@ -6436,13 +6603,15 @@
       <c r="N65" s="2">
         <v>23</v>
       </c>
-      <c r="O65" s="55">
+      <c r="O65" s="13">
         <v>1</v>
       </c>
-      <c r="P65" s="14">
+      <c r="P65" s="53">
         <v>0</v>
       </c>
-      <c r="Q65" s="13"/>
+      <c r="Q65" s="13">
+        <v>0</v>
+      </c>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
       <c r="T65" s="1"/>
@@ -6466,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>24</v>
       </c>
       <c r="AC65" s="14"/>
@@ -6508,13 +6677,15 @@
       <c r="N66" s="2">
         <v>27</v>
       </c>
-      <c r="O66" s="55">
+      <c r="O66" s="13">
         <v>-487</v>
       </c>
-      <c r="P66" s="14">
+      <c r="P66" s="53">
         <v>196</v>
       </c>
-      <c r="Q66" s="13"/>
+      <c r="Q66" s="13">
+        <v>-491</v>
+      </c>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
       <c r="T66" s="1"/>
@@ -6539,7 +6710,7 @@
         <v>557</v>
       </c>
       <c r="AB66" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>-558</v>
       </c>
       <c r="AC66" s="14"/>
@@ -6581,13 +6752,15 @@
       <c r="N67" s="2">
         <v>-493</v>
       </c>
-      <c r="O67" s="55">
+      <c r="O67" s="13">
         <v>-479</v>
       </c>
-      <c r="P67" s="14">
+      <c r="P67" s="53">
         <v>-448</v>
       </c>
-      <c r="Q67" s="13"/>
+      <c r="Q67" s="13">
+        <v>-425</v>
+      </c>
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
       <c r="T67" s="1"/>
@@ -6615,7 +6788,7 @@
         <v>-1705</v>
       </c>
       <c r="AB67" s="13">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>-1896</v>
       </c>
       <c r="AC67" s="14"/>
@@ -6625,89 +6798,89 @@
         <v>37</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" ref="D68:S68" si="60">SUM(D61:D67)</f>
+        <f t="shared" ref="D68:S68" si="68">SUM(D61:D67)</f>
         <v>-379</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-875</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-560</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-779</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-164</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-831</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-188</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-1088</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-542</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-1020</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-883</v>
       </c>
-      <c r="O68" s="54">
-        <f t="shared" si="60"/>
+      <c r="O68" s="11">
+        <f t="shared" si="68"/>
         <v>-1141</v>
       </c>
-      <c r="P68" s="12">
-        <f t="shared" si="60"/>
+      <c r="P68" s="52">
+        <f t="shared" si="68"/>
         <v>-431</v>
       </c>
       <c r="Q68" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
+        <v>-1322</v>
+      </c>
+      <c r="R68" s="11">
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="R68" s="11">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
       <c r="S68" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
       <c r="V68" s="11">
-        <f t="shared" ref="V68:Z68" si="61">SUM(V61:V67)</f>
+        <f t="shared" ref="V68:Z68" si="69">SUM(V61:V67)</f>
         <v>-297</v>
       </c>
       <c r="W68" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>-2130</v>
       </c>
       <c r="X68" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>-2003</v>
       </c>
       <c r="Y68" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>-2136</v>
       </c>
       <c r="Z68" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>-2590</v>
       </c>
       <c r="AA68" s="11">
@@ -6719,13 +6892,13 @@
         <v>-3586</v>
       </c>
       <c r="AC68" s="12">
-        <f t="shared" ref="AC68" si="62">SUM(AC61:AC67)</f>
+        <f t="shared" ref="AC68" si="70">SUM(AC61:AC67)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="O69" s="55"/>
-      <c r="P69" s="12"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="52"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
@@ -6777,13 +6950,15 @@
       <c r="N70" s="2">
         <v>-24</v>
       </c>
-      <c r="O70" s="55">
+      <c r="O70" s="13">
         <v>7</v>
       </c>
-      <c r="P70" s="12">
+      <c r="P70" s="52">
         <v>-4</v>
       </c>
-      <c r="Q70" s="11"/>
+      <c r="Q70" s="11">
+        <v>-16</v>
+      </c>
       <c r="R70" s="11"/>
       <c r="S70" s="11"/>
       <c r="T70" s="1"/>
@@ -6822,8 +6997,8 @@
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
-      <c r="O71" s="55"/>
-      <c r="P71" s="12"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="52"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
       <c r="S71" s="11"/>
@@ -6843,87 +7018,87 @@
         <v>39</v>
       </c>
       <c r="D72" s="2">
-        <f t="shared" ref="D72:N72" si="63">D56+D59+D68+D70</f>
+        <f t="shared" ref="D72:N72" si="71">D56+D59+D68+D70</f>
         <v>-228</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>-90</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>62</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>96</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>3</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>138</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>136</v>
       </c>
       <c r="K72" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>73</v>
       </c>
       <c r="L72" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>-269</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>153</v>
       </c>
       <c r="N72" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>-202</v>
       </c>
-      <c r="O72" s="55">
-        <f t="shared" ref="O72:S72" si="64">O56+O59+O68+O70</f>
+      <c r="O72" s="13">
+        <f t="shared" ref="O72:S72" si="72">O56+O59+O68+O70</f>
         <v>-225</v>
       </c>
-      <c r="P72" s="14">
-        <f t="shared" si="64"/>
+      <c r="P72" s="53">
+        <f t="shared" si="72"/>
         <v>16</v>
       </c>
       <c r="Q72" s="13">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
+        <v>-131</v>
+      </c>
+      <c r="R72" s="13">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="R72" s="13">
-        <f t="shared" si="64"/>
+      <c r="S72" s="13">
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="S72" s="13">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
       <c r="V72" s="13">
-        <f t="shared" ref="V72:Z72" si="65">V56+V59+V68+V70</f>
+        <f t="shared" ref="V72:Z72" si="73">V56+V59+V68+V70</f>
         <v>-172</v>
       </c>
       <c r="W72" s="13">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="X72" s="13">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>437</v>
       </c>
       <c r="Y72" s="13">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>171</v>
       </c>
       <c r="Z72" s="13">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>-168</v>
       </c>
       <c r="AA72" s="13">
@@ -6931,17 +7106,17 @@
         <v>366</v>
       </c>
       <c r="AB72" s="13">
-        <f t="shared" ref="AB72:AC72" si="66">AB56+AB59+AB68+AB70</f>
+        <f t="shared" ref="AB72:AC72" si="74">AB56+AB59+AB68+AB70</f>
         <v>-543</v>
       </c>
       <c r="AC72" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="O73" s="55"/>
-      <c r="P73" s="14"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="53"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
@@ -6959,87 +7134,87 @@
         <v>40</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" ref="D74:N74" si="67">D56+D58</f>
+        <f t="shared" ref="D74:N74" si="75">D56+D58</f>
         <v>147</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>781</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>622</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>863</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>171</v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>989</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>315</v>
       </c>
       <c r="K74" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>1162</v>
       </c>
       <c r="L74" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>283</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>1165</v>
       </c>
       <c r="N74" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>705</v>
       </c>
-      <c r="O74" s="55">
-        <f t="shared" ref="O74:S74" si="68">O56+O58</f>
+      <c r="O74" s="13">
+        <f t="shared" ref="O74:S74" si="76">O56+O58</f>
         <v>909</v>
       </c>
-      <c r="P74" s="14">
-        <f t="shared" si="68"/>
+      <c r="P74" s="53">
+        <f t="shared" si="76"/>
         <v>451</v>
       </c>
       <c r="Q74" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
+        <v>1207</v>
+      </c>
+      <c r="R74" s="13">
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="R74" s="13">
-        <f t="shared" si="68"/>
+      <c r="S74" s="13">
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="S74" s="13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
       <c r="V74" s="13">
-        <f t="shared" ref="V74:Z74" si="69">V56+V58</f>
+        <f t="shared" ref="V74:Z74" si="77">V56+V58</f>
         <v>126</v>
       </c>
       <c r="W74" s="13">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2148</v>
       </c>
       <c r="X74" s="13">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2435</v>
       </c>
       <c r="Y74" s="13">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2295</v>
       </c>
       <c r="Z74" s="13">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2415</v>
       </c>
       <c r="AA74" s="13">
@@ -7047,11 +7222,11 @@
         <v>2631</v>
       </c>
       <c r="AB74" s="13">
-        <f t="shared" ref="AB74:AC74" si="70">AB56+AB58</f>
+        <f t="shared" ref="AB74:AC74" si="78">AB56+AB58</f>
         <v>3062</v>
       </c>
       <c r="AC74" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
@@ -7071,10 +7246,10 @@
   <dimension ref="B3:W32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
+      <selection pane="bottomRight" activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -7102,7 +7277,7 @@
       <c r="F3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="32" t="s">
         <v>81</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -7117,7 +7292,7 @@
       <c r="K3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="32" t="s">
         <v>80</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -7132,7 +7307,7 @@
       <c r="P3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="32" t="s">
         <v>86</v>
       </c>
       <c r="R3" s="7" t="s">
@@ -7147,18 +7322,18 @@
       <c r="U3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="V3" s="32" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="V4" s="35"/>
+        <v>128</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="V4" s="33"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -7176,7 +7351,7 @@
       <c r="F5" s="13">
         <v>1388</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="39">
         <f>SUM(C5:F5)</f>
         <v>4982</v>
       </c>
@@ -7192,7 +7367,7 @@
       <c r="K5" s="13">
         <v>1876</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="39">
         <f>SUM(H5:K5)</f>
         <v>6073</v>
       </c>
@@ -7208,94 +7383,96 @@
       <c r="P5" s="13">
         <v>1962</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="Q5" s="39">
         <f>SUM(M5:P5)</f>
         <v>7110</v>
       </c>
       <c r="R5" s="13">
         <v>1583</v>
       </c>
-      <c r="S5" s="13"/>
+      <c r="S5" s="13">
+        <v>1933</v>
+      </c>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
-      <c r="V5" s="41">
+      <c r="V5" s="39">
         <f>SUM(R5:U5)</f>
-        <v>1583</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="32">
+        <v>114</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="30">
         <f>(H5-C5)/C5</f>
         <v>0.21861924686192469</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="30">
         <f t="shared" ref="I6:P6" si="0">(I5-D5)/D5</f>
         <v>0.13977635782747605</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="30">
         <f t="shared" si="0"/>
         <v>0.15800865800865802</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="30">
         <f t="shared" si="0"/>
         <v>0.35158501440922191</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="35">
         <f>(L5-G5)/G5</f>
         <v>0.21898835808912084</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="30">
         <f t="shared" si="0"/>
         <v>0.24635193133047209</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="30">
         <f t="shared" si="0"/>
         <v>0.27890679747722497</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="30">
         <f>(O5-J5)/J5</f>
         <v>0.16573208722741434</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="30">
         <f t="shared" si="0"/>
         <v>4.5842217484008532E-2</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="35">
         <f>(Q5-L5)/L5</f>
         <v>0.17075580438004281</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="30">
         <f>(R5-M5)/M5</f>
         <v>9.0220385674931125E-2</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="30">
         <f t="shared" ref="S6:U6" si="1">(S5-N5)/N5</f>
-        <v>-1</v>
-      </c>
-      <c r="T6" s="32">
+        <v>5.917808219178082E-2</v>
+      </c>
+      <c r="T6" s="30">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="U6" s="32">
+      <c r="U6" s="30">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="V6" s="37">
+      <c r="V6" s="35">
         <f>(V5-Q5)/Q5</f>
-        <v>-0.77735583684950771</v>
+        <v>-0.5054852320675105</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2">
         <v>-3</v>
@@ -7309,7 +7486,7 @@
       <c r="F7" s="2">
         <v>95</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <f>SUM(C7:F7)</f>
         <v>182</v>
       </c>
@@ -7325,7 +7502,7 @@
       <c r="K7" s="2">
         <v>150</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="34">
         <f>SUM(H7:K7)</f>
         <v>272</v>
       </c>
@@ -7341,84 +7518,89 @@
       <c r="P7" s="2">
         <v>156</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="34">
         <f>SUM(M7:P7)</f>
         <v>328</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="V7" s="36">
+      <c r="S7" s="2">
+        <v>115</v>
+      </c>
+      <c r="V7" s="34">
         <f>SUM(R7:U7)</f>
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="B8" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="30">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="30">
         <v>1.2E-2</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="30">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="30">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="35">
         <f>G7/G5</f>
         <v>3.6531513448414293E-2</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="30">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="30">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="30">
         <v>0.06</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="30">
         <v>0.08</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="35">
         <f>L7/L5</f>
         <v>4.4788407706240735E-2</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="30">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="30">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="30">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="P8" s="32">
+      <c r="P8" s="30">
         <v>0.08</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="35">
         <f>Q7/Q5</f>
         <v>4.6132208157524612E-2</v>
       </c>
-      <c r="R8" s="32">
+      <c r="R8" s="30">
         <v>0</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="37">
+      <c r="S8" s="30">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="35">
         <f>V7/V5</f>
-        <v>0</v>
+        <v>3.2707622298065987E-2</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="13">
         <v>22702</v>
@@ -7432,7 +7614,7 @@
       <c r="F9" s="13">
         <v>26663</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="39">
         <v>26663</v>
       </c>
       <c r="H9" s="13">
@@ -7447,7 +7629,7 @@
       <c r="K9" s="13">
         <v>35475</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="39">
         <v>35475</v>
       </c>
       <c r="M9" s="13">
@@ -7462,145 +7644,158 @@
       <c r="P9" s="13">
         <v>37797</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="39">
         <v>37797</v>
       </c>
       <c r="R9" s="13">
         <v>36371</v>
       </c>
-      <c r="S9" s="13"/>
+      <c r="S9" s="13">
+        <v>36852</v>
+      </c>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
-      <c r="V9" s="41"/>
+      <c r="V9" s="39"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="32">
+        <v>122</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="30">
         <f t="shared" ref="H10:O10" si="2">(H9-C9)/C9</f>
         <v>0.14478900537397585</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="30">
         <f t="shared" si="2"/>
         <v>6.4809596650833259E-2</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="30">
         <f t="shared" si="2"/>
         <v>0.13204265295318762</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="30">
         <f t="shared" si="2"/>
         <v>0.33049544312342949</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="35">
         <f t="shared" si="2"/>
         <v>0.33049544312342949</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="30">
         <f t="shared" si="2"/>
         <v>0.29604832813882798</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="30">
         <f t="shared" si="2"/>
         <v>-8.3887796763949793E-2</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="30">
         <f t="shared" si="2"/>
         <v>0.18257732647471442</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="30">
         <f>(P9-K9)/K9</f>
         <v>6.545454545454546E-2</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="35">
         <f>(Q9-L9)/L9</f>
         <v>6.545454545454546E-2</v>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="30">
         <f>(R9-M9)/M9</f>
         <v>7.980286791556572E-2</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="37">
+      <c r="S10" s="30">
+        <f>(S9-N9)/N9</f>
+        <v>0.52073618619238227</v>
+      </c>
+      <c r="T10" s="30">
+        <f>(T9-O9)/O9</f>
+        <v>-1</v>
+      </c>
+      <c r="U10" s="30">
+        <f>(U9-P9)/P9</f>
+        <v>-1</v>
+      </c>
+      <c r="V10" s="35">
         <f>(V9-Q9)/Q9</f>
         <v>-1</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="B11" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="26">
         <v>303</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="26">
         <v>312</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="26">
         <v>317</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="26">
         <v>317</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="40">
         <v>317</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="26">
         <v>328</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="26">
         <v>328</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="26">
         <v>444</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="26">
         <v>445</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="40">
         <v>445</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="26">
         <v>449</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="26">
         <v>453</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="26">
         <v>456</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="26">
         <v>484</v>
       </c>
-      <c r="Q11" s="42">
+      <c r="Q11" s="40">
         <v>484</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="26">
         <v>482</v>
       </c>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="45"/>
+      <c r="S11" s="26">
+        <v>482</v>
+      </c>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="43"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="36"/>
-      <c r="L12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
+        <v>117</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="L12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
@@ -7618,7 +7813,7 @@
       <c r="F13" s="13">
         <v>1029</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="39">
         <f>SUM(C13:F13)</f>
         <v>3769</v>
       </c>
@@ -7634,7 +7829,7 @@
       <c r="K13" s="13">
         <v>1091</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="39">
         <f>SUM(H13:K13)</f>
         <v>4073</v>
       </c>
@@ -7650,92 +7845,94 @@
       <c r="P13" s="13">
         <v>1197</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13" s="39">
         <f>SUM(M13:P13)</f>
         <v>4431</v>
       </c>
       <c r="R13" s="13">
         <v>904</v>
       </c>
-      <c r="S13" s="13"/>
+      <c r="S13" s="13">
+        <v>1228</v>
+      </c>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
-      <c r="V13" s="50">
+      <c r="V13" s="48">
         <f>SUM(R13:U13)</f>
-        <v>904</v>
-      </c>
-      <c r="W13" s="45"/>
+        <v>2132</v>
+      </c>
+      <c r="W13" s="43"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="32">
+        <v>114</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="30">
         <f t="shared" ref="H14" si="3">(H13-C13)/C13</f>
         <v>7.1045576407506708E-2</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="30">
         <f t="shared" ref="I14:J14" si="4">(I13-D13)/D13</f>
         <v>0.10649087221095335</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="30">
         <f t="shared" si="4"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="30">
         <f t="shared" ref="K14" si="5">(K13-F13)/F13</f>
         <v>6.0252672497570457E-2</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="35">
         <f>(L13-G13)/G13</f>
         <v>8.0657999469355271E-2</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="30">
         <f t="shared" ref="M14" si="6">(M13-H13)/H13</f>
         <v>7.634543178973717E-2</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="30">
         <f t="shared" ref="N14" si="7">(N13-I13)/I13</f>
         <v>9.3492208982584785E-2</v>
       </c>
-      <c r="O14" s="32">
+      <c r="O14" s="30">
         <f>(O13-J13)/J13</f>
         <v>8.1501831501831504E-2</v>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="30">
         <f t="shared" ref="P14" si="8">(P13-K13)/K13</f>
         <v>9.715857011915674E-2</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="35">
         <f>(Q13-L13)/L13</f>
         <v>8.7895899828136503E-2</v>
       </c>
-      <c r="R14" s="32">
+      <c r="R14" s="30">
         <f>(R13-M13)/M13</f>
         <v>5.1162790697674418E-2</v>
       </c>
-      <c r="S14" s="32">
+      <c r="S14" s="30">
         <f t="shared" ref="S14" si="9">(S13-N13)/N13</f>
-        <v>-1</v>
-      </c>
-      <c r="T14" s="32">
+        <v>2.9337803855825649E-2</v>
+      </c>
+      <c r="T14" s="30">
         <f t="shared" ref="T14" si="10">(T13-O13)/O13</f>
         <v>-1</v>
       </c>
-      <c r="U14" s="32">
+      <c r="U14" s="30">
         <f t="shared" ref="U14" si="11">(U13-P13)/P13</f>
         <v>-1</v>
       </c>
-      <c r="V14" s="47">
+      <c r="V14" s="45">
         <f>(V13-Q13)/Q13</f>
-        <v>-0.79598284811554953</v>
-      </c>
-      <c r="W14" s="45"/>
+        <v>-0.51884450462649512</v>
+      </c>
+      <c r="W14" s="43"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2">
         <v>57</v>
@@ -7749,7 +7946,7 @@
       <c r="F15" s="2">
         <v>88</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="34">
         <f>SUM(C15:F15)</f>
         <v>261</v>
       </c>
@@ -7765,7 +7962,7 @@
       <c r="K15" s="2">
         <v>99</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="34">
         <f>SUM(H15:K15)</f>
         <v>293</v>
       </c>
@@ -7781,86 +7978,91 @@
       <c r="P15" s="2">
         <v>114</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="34">
         <f>SUM(M15:P15)</f>
         <v>314</v>
       </c>
       <c r="R15" s="2">
         <v>49</v>
       </c>
-      <c r="V15" s="46">
+      <c r="S15" s="2">
+        <v>88</v>
+      </c>
+      <c r="V15" s="44">
         <f>SUM(R15:U15)</f>
-        <v>49</v>
-      </c>
-      <c r="W15" s="45"/>
+        <v>137</v>
+      </c>
+      <c r="W15" s="43"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="B16" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="30">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="30">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="30">
         <v>6.3E-2</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="30">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="35">
         <f>G15/G13</f>
         <v>6.9249137702308311E-2</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="30">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="30">
         <v>0.06</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="30">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="30">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="35">
         <f>L15/L13</f>
         <v>7.193714706604469E-2</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="30">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="30">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="O16" s="32">
+      <c r="O16" s="30">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="P16" s="32">
+      <c r="P16" s="30">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="35">
         <f>Q15/Q13</f>
         <v>7.0864364703227267E-2</v>
       </c>
-      <c r="R16" s="32">
+      <c r="R16" s="30">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="47">
+      <c r="S16" s="30">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="45">
         <f>V15/V13</f>
-        <v>5.4203539823008851E-2</v>
-      </c>
-      <c r="W16" s="45"/>
+        <v>6.4258911819887424E-2</v>
+      </c>
+      <c r="W16" s="43"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="13">
         <v>28416</v>
@@ -7874,7 +8076,7 @@
       <c r="F17" s="13">
         <v>28911</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="39">
         <v>28911</v>
       </c>
       <c r="H17" s="13">
@@ -7889,7 +8091,7 @@
       <c r="K17" s="13">
         <v>29377</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="36">
         <v>29377</v>
       </c>
       <c r="M17" s="13">
@@ -7904,141 +8106,157 @@
       <c r="P17" s="13">
         <v>30795</v>
       </c>
-      <c r="Q17" s="41">
+      <c r="Q17" s="39">
         <v>30795</v>
       </c>
       <c r="R17" s="13">
         <v>30236</v>
       </c>
-      <c r="S17" s="13"/>
+      <c r="S17" s="13">
+        <v>30236</v>
+      </c>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="32">
+        <v>122</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="30">
         <f t="shared" ref="H18" si="12">(H17-C17)/C17</f>
         <v>1.439329954954955E-2</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="30">
         <f t="shared" ref="I18" si="13">(I17-D17)/D17</f>
         <v>2.5841514726507715E-2</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="30">
         <f t="shared" ref="J18" si="14">(J17-E17)/E17</f>
         <v>2.1904927738115969E-2</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="30">
         <f t="shared" ref="K18" si="15">(K17-F17)/F17</f>
         <v>1.6118432430562761E-2</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="35">
         <f t="shared" ref="L18" si="16">(L17-G17)/G17</f>
         <v>1.6118432430562761E-2</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="30">
         <f t="shared" ref="M18" si="17">(M17-H17)/H17</f>
         <v>2.2931483087597571E-2</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="30">
         <f t="shared" ref="N18" si="18">(N17-I17)/I17</f>
         <v>4.7544177461804012E-2</v>
       </c>
-      <c r="O18" s="32">
+      <c r="O18" s="30">
         <f t="shared" ref="O18" si="19">(O17-J17)/J17</f>
         <v>4.9482006543075246E-2</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="30">
         <f>(P17-K17)/K17</f>
         <v>4.826905402185383E-2</v>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="35">
         <f>(Q17-L17)/L17</f>
         <v>4.826905402185383E-2</v>
       </c>
-      <c r="R18" s="32">
+      <c r="R18" s="30">
         <f t="shared" ref="R18" si="20">(R17-M17)/M17</f>
         <v>2.543580004069728E-2</v>
       </c>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
+      <c r="S18" s="30">
+        <f>(S17-N17)/N17</f>
+        <v>-1.344296528321587E-2</v>
+      </c>
+      <c r="T18" s="30">
+        <f>(T17-O17)/O17</f>
+        <v>-1</v>
+      </c>
+      <c r="U18" s="30">
+        <f>(U17-P17)/P17</f>
+        <v>-1</v>
+      </c>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="26">
+        <v>116</v>
+      </c>
+      <c r="D19" s="26">
+        <v>116</v>
+      </c>
+      <c r="E19" s="26">
         <v>117</v>
       </c>
-      <c r="C19" s="28">
-        <v>116</v>
-      </c>
-      <c r="D19" s="28">
-        <v>116</v>
-      </c>
-      <c r="E19" s="28">
+      <c r="F19" s="26">
         <v>117</v>
       </c>
-      <c r="F19" s="28">
+      <c r="G19" s="40">
         <v>117</v>
       </c>
-      <c r="G19" s="42">
-        <v>117</v>
-      </c>
-      <c r="H19" s="28">
+      <c r="H19" s="26">
         <v>118</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="26">
         <v>118</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="26">
         <v>118</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="26">
         <v>118</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="37">
         <v>118</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="26">
         <v>126</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="26">
         <v>126</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="26">
         <v>126</v>
       </c>
-      <c r="P19" s="28">
+      <c r="P19" s="26">
         <v>126</v>
       </c>
-      <c r="Q19" s="42">
+      <c r="Q19" s="40">
         <v>126</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R19" s="26">
         <v>122</v>
       </c>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="45"/>
+      <c r="S19" s="26">
+        <v>122</v>
+      </c>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="43"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="L20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
+        <v>118</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="L20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
@@ -8056,7 +8274,7 @@
       <c r="F21" s="13">
         <v>1383</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="39">
         <f>SUM(C21:F21)</f>
         <v>5154</v>
       </c>
@@ -8072,7 +8290,7 @@
       <c r="K21" s="13">
         <v>1465</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="39">
         <f>SUM(H21:K21)</f>
         <v>5481</v>
       </c>
@@ -8088,91 +8306,93 @@
       <c r="P21" s="13">
         <v>1505</v>
       </c>
-      <c r="Q21" s="41">
+      <c r="Q21" s="39">
         <f>SUM(M21:P21)</f>
         <v>5678</v>
       </c>
       <c r="R21" s="13">
         <v>1193</v>
       </c>
-      <c r="S21" s="13"/>
+      <c r="S21" s="13">
+        <v>1569</v>
+      </c>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
-      <c r="V21" s="50">
+      <c r="V21" s="48">
         <f>SUM(R21:U21)</f>
-        <v>1193</v>
-      </c>
-      <c r="W21" s="45"/>
+        <v>2762</v>
+      </c>
+      <c r="W21" s="43"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="32">
+        <v>114</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="30">
         <f t="shared" ref="H22" si="21">(H21-C21)/C21</f>
         <v>7.5121951219512192E-2</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="30">
         <f t="shared" ref="I22:J22" si="22">(I21-D21)/D21</f>
         <v>5.8780308596620132E-2</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="30">
         <f t="shared" si="22"/>
         <v>6.3537906137184116E-2</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="30">
         <f t="shared" ref="K22" si="23">(K21-F21)/F21</f>
         <v>5.9291395516992043E-2</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="35">
         <f>(L21-G21)/G21</f>
         <v>6.3445867287543659E-2</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="30">
         <f t="shared" ref="M22" si="24">(M21-H21)/H21</f>
         <v>3.3575317604355719E-2</v>
       </c>
-      <c r="N22" s="32">
+      <c r="N22" s="30">
         <f t="shared" ref="N22" si="25">(N21-I21)/I21</f>
         <v>5.1353226925746009E-2</v>
       </c>
-      <c r="O22" s="32">
+      <c r="O22" s="30">
         <f>(O21-J21)/J21</f>
         <v>3.1228784792939578E-2</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="30">
         <f t="shared" ref="P22" si="26">(P21-K21)/K21</f>
         <v>2.7303754266211604E-2</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="35">
         <f>(Q21-L21)/L21</f>
         <v>3.5942346287173875E-2</v>
       </c>
-      <c r="R22" s="32">
+      <c r="R22" s="30">
         <f>(R21-M21)/M21</f>
         <v>4.7410008779631259E-2</v>
       </c>
-      <c r="S22" s="32">
+      <c r="S22" s="30">
         <f t="shared" ref="S22" si="27">(S21-N21)/N21</f>
-        <v>-1</v>
-      </c>
-      <c r="T22" s="32">
+        <v>3.5643564356435641E-2</v>
+      </c>
+      <c r="T22" s="30">
         <f t="shared" ref="T22" si="28">(T21-O21)/O21</f>
         <v>-1</v>
       </c>
-      <c r="U22" s="32">
+      <c r="U22" s="30">
         <f t="shared" ref="U22" si="29">(U21-P21)/P21</f>
         <v>-1</v>
       </c>
-      <c r="V22" s="37">
+      <c r="V22" s="35">
         <f>(V21-Q21)/Q21</f>
-        <v>-0.78989080662205002</v>
+        <v>-0.51356111306798169</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="2">
         <v>74</v>
@@ -8186,7 +8406,7 @@
       <c r="F23" s="2">
         <v>137</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="34">
         <f>SUM(C23:F23)</f>
         <v>434</v>
       </c>
@@ -8202,7 +8422,7 @@
       <c r="K23" s="2">
         <v>179</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="34">
         <f>SUM(H23:K23)</f>
         <v>452</v>
       </c>
@@ -8218,84 +8438,89 @@
       <c r="P23" s="2">
         <v>184</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="34">
         <f>SUM(M23:P23)</f>
         <v>497</v>
       </c>
       <c r="R23" s="2">
         <v>65</v>
       </c>
-      <c r="V23" s="36">
+      <c r="S23" s="2">
+        <v>101</v>
+      </c>
+      <c r="V23" s="34">
         <f>SUM(R23:U23)</f>
-        <v>65</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="32">
+      <c r="B24" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="30">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="30">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="30">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="30">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="35">
         <f>G23/G21</f>
         <v>8.4206441598758244E-2</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="30">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="30">
         <v>6.2E-2</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="30">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="30">
         <v>0.122</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="35">
         <f>L23/L21</f>
         <v>8.2466703156358331E-2</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="30">
         <v>0.06</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="30">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="30">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="P24" s="32">
+      <c r="P24" s="30">
         <v>0.122</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="35">
         <f>Q23/Q21</f>
         <v>8.7530820711518145E-2</v>
       </c>
-      <c r="R24" s="32">
+      <c r="R24" s="30">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="37">
+      <c r="S24" s="30">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="35">
         <f>V23/V21</f>
-        <v>5.4484492875104776E-2</v>
+        <v>6.010137581462708E-2</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="13">
         <v>44716</v>
@@ -8309,7 +8534,7 @@
       <c r="F25" s="13">
         <v>43413</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="39">
         <v>43413</v>
       </c>
       <c r="H25" s="13">
@@ -8324,7 +8549,7 @@
       <c r="K25" s="13">
         <v>44658</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L25" s="39">
         <v>44658</v>
       </c>
       <c r="M25" s="13">
@@ -8339,137 +8564,153 @@
       <c r="P25" s="13">
         <v>44938</v>
       </c>
-      <c r="Q25" s="41">
+      <c r="Q25" s="39">
         <v>44938</v>
       </c>
       <c r="R25" s="13">
         <v>46476</v>
       </c>
-      <c r="S25" s="13"/>
+      <c r="S25" s="13">
+        <v>46088</v>
+      </c>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
-      <c r="V25" s="38"/>
+      <c r="V25" s="36"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="32">
+        <v>122</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="30">
         <f t="shared" ref="H26" si="30">(H25-C25)/C25</f>
         <v>2.7328025762590573E-2</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="30">
         <f t="shared" ref="I26" si="31">(I25-D25)/D25</f>
         <v>3.3510939802743452E-2</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J26" s="30">
         <f t="shared" ref="J26" si="32">(J25-E25)/E25</f>
         <v>2.7872025503814186E-2</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="30">
         <f t="shared" ref="K26" si="33">(K25-F25)/F25</f>
         <v>2.8678045746665746E-2</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="35">
         <f t="shared" ref="L26" si="34">(L25-G25)/G25</f>
         <v>2.8678045746665746E-2</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="30">
         <f t="shared" ref="M26" si="35">(M25-H25)/H25</f>
         <v>3.7877138752231269E-3</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="30">
         <f t="shared" ref="N26" si="36">(N25-I25)/I25</f>
         <v>6.1426408968255708E-3</v>
       </c>
-      <c r="O26" s="32">
+      <c r="O26" s="30">
         <f t="shared" ref="O26" si="37">(O25-J25)/J25</f>
         <v>5.8486009880591066E-3</v>
       </c>
-      <c r="P26" s="32">
+      <c r="P26" s="30">
         <f>(P25-K25)/K25</f>
         <v>6.2698732589905508E-3</v>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q26" s="35">
         <f>(Q25-L25)/L25</f>
         <v>6.2698732589905508E-3</v>
       </c>
-      <c r="R26" s="32">
+      <c r="R26" s="30">
         <f t="shared" ref="R26" si="38">(R25-M25)/M25</f>
         <v>7.8938237335183896E-3</v>
       </c>
-      <c r="V26" s="35"/>
+      <c r="S26" s="30">
+        <f>(S25-N25)/N25</f>
+        <v>4.9059154438218172E-3</v>
+      </c>
+      <c r="T26" s="30">
+        <f>(T25-O25)/O25</f>
+        <v>-1</v>
+      </c>
+      <c r="U26" s="30">
+        <f>(U25-P25)/P25</f>
+        <v>-1</v>
+      </c>
+      <c r="V26" s="33"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="28">
+      <c r="B27" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="26">
         <v>152</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="26">
         <v>152</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="26">
         <v>152</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="26">
         <v>152</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="40">
         <v>152</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="26">
         <v>149</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="26">
         <v>149</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="26">
         <v>149</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="26">
         <v>149</v>
       </c>
-      <c r="L27" s="42">
+      <c r="L27" s="40">
         <v>149</v>
       </c>
-      <c r="M27" s="28">
+      <c r="M27" s="26">
         <v>148</v>
       </c>
-      <c r="N27" s="28">
+      <c r="N27" s="26">
         <v>148</v>
       </c>
-      <c r="O27" s="28">
+      <c r="O27" s="26">
         <v>147</v>
       </c>
-      <c r="P27" s="28">
+      <c r="P27" s="26">
         <v>147</v>
       </c>
-      <c r="Q27" s="42">
+      <c r="Q27" s="40">
         <v>147</v>
       </c>
-      <c r="R27" s="28">
+      <c r="R27" s="26">
         <v>145</v>
       </c>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="39"/>
+      <c r="S27" s="26">
+        <v>145</v>
+      </c>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="37"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="36"/>
-      <c r="L28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="V28" s="35"/>
+        <v>119</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="L28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="V28" s="33"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
@@ -8487,7 +8728,7 @@
       <c r="F29" s="13">
         <v>397</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="39">
         <f>SUM(C29:F29)</f>
         <v>1627</v>
       </c>
@@ -8503,7 +8744,7 @@
       <c r="K29" s="13">
         <v>423</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="39">
         <f>SUM(H29:K29)</f>
         <v>1704</v>
       </c>
@@ -8519,90 +8760,92 @@
       <c r="P29" s="13">
         <v>454</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="39">
         <f>SUM(M29:P29)</f>
         <v>1802</v>
       </c>
       <c r="R29" s="13">
         <v>421</v>
       </c>
-      <c r="S29" s="13"/>
+      <c r="S29" s="13">
+        <v>501</v>
+      </c>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
-      <c r="V29" s="41">
+      <c r="V29" s="39">
         <f>SUM(R29:U29)</f>
-        <v>421</v>
+        <v>922</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="32">
+        <v>114</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="H30" s="30">
         <f t="shared" ref="H30" si="39">(H29-C29)/C29</f>
         <v>-3.1830238726790451E-2</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="30">
         <f t="shared" ref="I30:J30" si="40">(I29-D29)/D29</f>
         <v>7.9908675799086754E-2</v>
       </c>
-      <c r="J30" s="32">
+      <c r="J30" s="30">
         <f t="shared" si="40"/>
         <v>6.746987951807229E-2</v>
       </c>
-      <c r="K30" s="32">
+      <c r="K30" s="30">
         <f t="shared" ref="K30" si="41">(K29-F29)/F29</f>
         <v>6.5491183879093195E-2</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L30" s="35">
         <f>(L29-G29)/G29</f>
         <v>4.7326367547633683E-2</v>
       </c>
-      <c r="M30" s="32">
+      <c r="M30" s="30">
         <f t="shared" ref="M30" si="42">(M29-H29)/H29</f>
         <v>7.1232876712328766E-2</v>
       </c>
-      <c r="N30" s="32">
+      <c r="N30" s="30">
         <f t="shared" ref="N30" si="43">(N29-I29)/I29</f>
         <v>4.0169133192389003E-2</v>
       </c>
-      <c r="O30" s="32">
+      <c r="O30" s="30">
         <f>(O29-J29)/J29</f>
         <v>4.9661399548532728E-2</v>
       </c>
-      <c r="P30" s="32">
+      <c r="P30" s="30">
         <f t="shared" ref="P30" si="44">(P29-K29)/K29</f>
         <v>7.328605200945626E-2</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="35">
         <f>(Q29-L29)/L29</f>
         <v>5.7511737089201875E-2</v>
       </c>
-      <c r="R30" s="32">
+      <c r="R30" s="30">
         <f>(R29-M29)/M29</f>
         <v>7.6726342710997444E-2</v>
       </c>
-      <c r="S30" s="32">
+      <c r="S30" s="30">
         <f t="shared" ref="S30" si="45">(S29-N29)/N29</f>
-        <v>-1</v>
-      </c>
-      <c r="T30" s="32">
+        <v>1.8292682926829267E-2</v>
+      </c>
+      <c r="T30" s="30">
         <f t="shared" ref="T30" si="46">(T29-O29)/O29</f>
         <v>-1</v>
       </c>
-      <c r="U30" s="32">
+      <c r="U30" s="30">
         <f t="shared" ref="U30" si="47">(U29-P29)/P29</f>
         <v>-1</v>
       </c>
-      <c r="V30" s="37">
+      <c r="V30" s="35">
         <f>(V29-Q29)/Q29</f>
-        <v>-0.76637069922308543</v>
+        <v>-0.48834628190898999</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2">
         <v>45</v>
@@ -8616,7 +8859,7 @@
       <c r="F31" s="2">
         <v>20</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="34">
         <f>SUM(C31:F31)</f>
         <v>126</v>
       </c>
@@ -8632,7 +8875,7 @@
       <c r="K31" s="2">
         <v>23</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="34">
         <f>SUM(H31:K31)</f>
         <v>160</v>
       </c>
@@ -8648,79 +8891,84 @@
       <c r="P31" s="2">
         <v>34</v>
       </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="34">
         <f>SUM(M31:P31)</f>
         <v>214</v>
       </c>
       <c r="R31" s="2">
         <v>79</v>
       </c>
-      <c r="V31" s="36">
+      <c r="S31" s="2">
+        <v>67</v>
+      </c>
+      <c r="V31" s="34">
         <f>SUM(R31:U31)</f>
-        <v>79</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="33">
+      <c r="B32" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="31">
         <v>0.11899999999999999</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="31">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="31">
         <v>0.08</v>
       </c>
-      <c r="F32" s="33">
+      <c r="F32" s="31">
         <v>0.05</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="38">
         <f>G31/G29</f>
         <v>7.7443146896127843E-2</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="31">
         <v>0.13200000000000001</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="31">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="J32" s="33">
+      <c r="J32" s="31">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="K32" s="33">
+      <c r="K32" s="31">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="38">
         <f>L31/L29</f>
         <v>9.3896713615023469E-2</v>
       </c>
-      <c r="M32" s="33">
+      <c r="M32" s="31">
         <v>0.17100000000000001</v>
       </c>
-      <c r="N32" s="33">
+      <c r="N32" s="31">
         <v>0.122</v>
       </c>
-      <c r="O32" s="33">
+      <c r="O32" s="31">
         <v>0.114</v>
       </c>
-      <c r="P32" s="33">
+      <c r="P32" s="31">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Q32" s="40">
+      <c r="Q32" s="38">
         <f>Q31/Q29</f>
         <v>0.11875693673695893</v>
       </c>
-      <c r="R32" s="33">
+      <c r="R32" s="31">
         <v>0.188</v>
       </c>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="40">
+      <c r="S32" s="31">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="38">
         <f>V31/V29</f>
-        <v>0.18764845605700711</v>
+        <v>0.15835140997830802</v>
       </c>
     </row>
   </sheetData>
@@ -8729,10 +8977,210 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A818D8-5137-2C42-AF6D-2573550AA6CD}">
+  <dimension ref="C6:H16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="60"/>
+    <col min="3" max="3" width="33" style="60" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="60"/>
+    <col min="6" max="6" width="12.83203125" style="60" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="60"/>
+    <col min="8" max="8" width="12.83203125" style="60" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="62">
+        <v>402</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62">
+        <v>10</v>
+      </c>
+      <c r="G7" s="65">
+        <f>D7*F7</f>
+        <v>4020</v>
+      </c>
+      <c r="H7" s="63">
+        <f>G7/Modell!$B$5</f>
+        <v>38.104265402843602</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="62">
+        <v>348</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62">
+        <v>8</v>
+      </c>
+      <c r="G8" s="65">
+        <f t="shared" ref="G8:G10" si="0">D8*F8</f>
+        <v>2784</v>
+      </c>
+      <c r="H8" s="63">
+        <f>G8/Modell!$B$5</f>
+        <v>26.388625592417061</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="62">
+        <v>550</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62">
+        <v>7</v>
+      </c>
+      <c r="G9" s="65">
+        <f t="shared" si="0"/>
+        <v>3850</v>
+      </c>
+      <c r="H9" s="63">
+        <f>G9/Modell!$B$5</f>
+        <v>36.492890995260666</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="62">
+        <v>240</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62">
+        <v>10</v>
+      </c>
+      <c r="G10" s="65">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="H10" s="63">
+        <f>G10/Modell!$B$5</f>
+        <v>22.748815165876778</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="66">
+        <f>SUM(G7:G10)</f>
+        <v>13054</v>
+      </c>
+      <c r="H11" s="64">
+        <f>SUM(H7:H10)</f>
+        <v>123.73459715639811</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62">
+        <f>Modell!B7</f>
+        <v>661</v>
+      </c>
+      <c r="H13" s="63">
+        <f>G13/Modell!$B$5</f>
+        <v>6.2654028436018958</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="65">
+        <f>Modell!Q40+Modell!Q43</f>
+        <v>1169</v>
+      </c>
+      <c r="H14" s="63">
+        <f>-G14/Modell!$B$5</f>
+        <v>-11.080568720379146</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="64">
+        <f>SUM(H11:H14)</f>
+        <v>118.91943127962085</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC8E745-DC06-8448-81B5-DC40131426CF}">
   <dimension ref="C4:F6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -8745,49 +9193,49 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:6" ht="62" x14ac:dyDescent="0.7">
-      <c r="C4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>125</v>
+      <c r="F4" s="24" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="62" x14ac:dyDescent="0.7">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <f>Modell!$B$9/Modell!AC12</f>
-        <v>12.070038386423327</v>
-      </c>
-      <c r="E5" s="31">
+        <v>11.380150385455011</v>
+      </c>
+      <c r="E5" s="29">
         <f>Modell!$B$9/Modell!AD12</f>
-        <v>11.027137754759368</v>
-      </c>
-      <c r="F5" s="31">
+        <v>10.417633826735702</v>
+      </c>
+      <c r="F5" s="29">
         <f>Modell!$B$9/Modell!AE12</f>
-        <v>10.5020359569137</v>
+        <v>9.9215560254625554</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="62" x14ac:dyDescent="0.7">
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="29">
         <f>Modell!$B$4/Modell!AC18</f>
-        <v>12.787325224016275</v>
-      </c>
-      <c r="E6" s="31">
+        <v>10.576455240040429</v>
+      </c>
+      <c r="E6" s="29">
         <f>Modell!$B$4/Modell!AD18</f>
-        <v>11.237436260949568</v>
-      </c>
-      <c r="F6" s="31">
+        <v>9.3365087768241484</v>
+      </c>
+      <c r="F6" s="29">
         <f>Modell!$B$4/Modell!AE18</f>
-        <v>10.579879388552659</v>
+        <v>8.7932715010012359</v>
       </c>
     </row>
   </sheetData>
@@ -8795,12 +9243,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16AF608-E595-F641-98DA-8D39C9F896D8}">
   <dimension ref="A3:EX24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
@@ -8819,7 +9267,7 @@
   <sheetData>
     <row r="3" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>85</v>
@@ -8875,7 +9323,7 @@
     </row>
     <row r="4" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -8943,7 +9391,7 @@
       </c>
     </row>
     <row r="5" spans="1:154" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="A5" s="49">
         <f>W23</f>
         <v>64.497928159316899</v>
       </c>
@@ -9015,7 +9463,7 @@
     <row r="6" spans="1:154" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <f>W24</f>
-        <v>-0.38573401753031522</v>
+        <v>-0.28335635378536778</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -10450,7 +10898,7 @@
       <c r="V19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="W19" s="27">
+      <c r="W19" s="25">
         <v>0.08</v>
       </c>
     </row>
@@ -10526,7 +10974,7 @@
       <c r="V20" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="W20" s="27">
+      <c r="W20" s="25">
         <v>-0.01</v>
       </c>
     </row>
@@ -10599,10 +11047,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="V21" s="28" t="s">
+      <c r="V21" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="W21" s="30">
+      <c r="W21" s="28">
         <f>NPV(W19,J16:EX16)</f>
         <v>6804.5314208079335</v>
       </c>
@@ -10682,7 +11130,7 @@
       <c r="V22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W22" s="29">
+      <c r="W22" s="27">
         <v>105.5</v>
       </c>
     </row>
@@ -10761,7 +11209,7 @@
       <c r="V23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="W23" s="43">
+      <c r="W23" s="41">
         <f>W21/W22</f>
         <v>64.497928159316899</v>
       </c>
@@ -10789,7 +11237,7 @@
       </c>
       <c r="W24" s="17">
         <f>(W23-Modell!B4)/Modell!B4</f>
-        <v>-0.38573401753031522</v>
+        <v>-0.28335635378536778</v>
       </c>
     </row>
   </sheetData>
